--- a/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
@@ -434,3616 +434,3618 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>19994.80580850163</v>
+        <v>18259.18871024664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>24.08869565752611</v>
+        <v>21.99771500693703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>24.47996122950628</v>
+        <v>22.35501739751943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>24.87984234609447</v>
+        <v>22.72018747415721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>25.28863563982421</v>
+        <v>23.09349612067184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>25.70664978697654</v>
+        <v>23.47522521919411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>26.13420586868066</v>
+        <v>23.86566797991999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>26.57163772944045</v>
+        <v>24.26512926851581</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>27.01929233187708</v>
+        <v>24.67392593006804</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>27.47753010605052</v>
+        <v>25.09238710808253</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>27.94672529226109</v>
+        <v>25.52085455752959</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>28.42726627586364</v>
+        <v>25.95968295059534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>28.91955591218104</v>
+        <v>26.40924017339148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>29.4240118403938</v>
+        <v>26.86990761259826</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>29.94106678419166</v>
+        <v>27.34208043001852</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>30.47116883787436</v>
+        <v>27.82616782384388</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>31.01478173563991</v>
+        <v>28.32259327456793</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>31.57238510240767</v>
+        <v>28.83179477403698</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>32.14447468413581</v>
+        <v>29.35422503577518</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>32.73156255539131</v>
+        <v>29.89035168453679</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>33.3341773024367</v>
+        <v>30.4406574235003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>33.95286417925949</v>
+        <v>31.005640176754</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>34.58818523459082</v>
+        <v>31.58581320528901</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>35.24071940767172</v>
+        <v>32.18170519445266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>35.91106259021638</v>
+        <v>32.79386031053316</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>36.59982765260732</v>
+        <v>33.42283822468092</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>37.30764443167342</v>
+        <v>34.06921410174754</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>38.03515967783636</v>
+        <v>34.73357855202004</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>38.78303695933233</v>
+        <v>35.41653754375653</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>39.55195652091098</v>
+        <v>36.11871227415051</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>40.34261509490443</v>
+        <v>36.84073899679978</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>41.1557256622383</v>
+        <v>37.58326880346247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>41.99201716105587</v>
+        <v>38.34696735797368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>42.85223414082845</v>
+        <v>39.13251458038019</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>43.73713635962244</v>
+        <v>39.94060427916613</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>44.64749832258622</v>
+        <v>40.77194372980077</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>45.58410875936703</v>
+        <v>41.62725319751743</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>46.54777003884097</v>
+        <v>42.50726540284681</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>47.53929751908795</v>
+        <v>43.41272492801646</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>48.55951883101823</v>
+        <v>44.34438756276081</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>49.60927309393448</v>
+        <v>45.30301958797527</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>50.68941006201713</v>
+        <v>46.28939699628943</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>51.80078919988247</v>
+        <v>47.30430464786993</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>52.94427868673921</v>
+        <v>48.34853536101957</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>54.12075434788186</v>
+        <v>49.42288893642074</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>55.33109851293207</v>
+        <v>50.52817111448525</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>56.5761988006894</v>
+        <v>51.66519246568422</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>57.85694682988762</v>
+        <v>52.83476721321507</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>59.17423685628781</v>
+        <v>54.03771198839962</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>60.52896433639653</v>
+        <v>55.27484451907639</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>61.92202441817314</v>
+        <v>56.54698225131961</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>63.35431035988471</v>
+        <v>57.85494090554295</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>64.8267118780295</v>
+        <v>59.19953296782885</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>66.34011342619991</v>
+        <v>60.58156611819201</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>67.89539240621282</v>
+        <v>62.00184159698965</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>69.49341731403811</v>
+        <v>63.46115251178984</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>71.13504582302053</v>
+        <v>64.96028208697609</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>72.82112280683425</v>
+        <v>66.50000185831631</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>74.55247830579219</v>
+        <v>68.08106981580327</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>76.32992543989454</v>
+        <v>69.70422849785771</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>78.15425827241664</v>
+        <v>71.37020304036398</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>80.02624962831798</v>
+        <v>73.07969918444853</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>81.9466488723875</v>
+        <v>74.83340124748987</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>83.91617965142697</v>
+        <v>76.631970061288</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>85.93553760668044</v>
+        <v>78.47604088306278</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>88.00538806128982</v>
+        <v>80.36622128364627</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>90.126363689412</v>
+        <v>82.3030890189283</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>92.29906217314527</v>
+        <v>84.2871898901698</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>94.52404385380569</v>
+        <v>86.31903559915621</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>96.80182938457925</v>
+        <v>88.39910160460747</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>99.13289739203485</v>
+        <v>90.52782498667966</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>101.5176821535879</v>
+        <v>92.70560232603259</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>103.9565712991423</v>
+        <v>94.93278760497715</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>106.4499035446615</v>
+        <v>97.20969013778004</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>108.9979664660031</v>
+        <v>99.53657253773689</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>111.6009943214108</v>
+        <v>101.9136487286799</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>114.2591659313526</v>
+        <v>104.3410820088526</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>116.9726026242202</v>
+        <v>106.81898317493</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>119.7413662569726</v>
+        <v>109.3474087144767</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>122.5654573194194</v>
+        <v>111.9263590747855</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>125.4448131311864</v>
+        <v>114.5557770163513</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>128.3793061402824</v>
+        <v>117.2355460591294</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>131.3687423322216</v>
+        <v>119.9654890297508</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>134.412859758485</v>
+        <v>122.7453667177182</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>137.5113271932034</v>
+        <v>125.5748766486934</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>140.663742926332</v>
+        <v>128.453651982429</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>143.8696337022627</v>
+        <v>131.3812605435118</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>147.1284538117563</v>
+        <v>134.3572039921193</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>150.439584344867</v>
+        <v>137.3809171417924</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>153.8023326131891</v>
+        <v>140.4517674318333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>157.2159317481649</v>
+        <v>143.5690545604813</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>91</v>
+        <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>160.6795404824348</v>
+        <v>146.7320102852427</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>164.1922431209733</v>
+        <v>149.9397983965323</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>93</v>
+        <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>167.7530497078725</v>
+        <v>153.1915148699795</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>171.3608963941568</v>
+        <v>156.4861882023152</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>175.0146460119364</v>
+        <v>159.8227799356874</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>96</v>
+        <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>178.7130888590702</v>
+        <v>163.2001853742121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>97</v>
+        <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>182.4549436982738</v>
+        <v>166.6172344963555</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>98</v>
+        <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>186.2388589738084</v>
+        <v>170.0726930660104</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>99</v>
+        <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>190.0634142481098</v>
+        <v>173.5652639444205</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>193.927121860595</v>
+        <v>177.0935886049974</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>101</v>
+        <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>197.8284288091845</v>
+        <v>180.6562488515202</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>102</v>
+        <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>201.7657188550989</v>
+        <v>184.2517687402285</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>103</v>
+        <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>205.7373148508442</v>
+        <v>187.8786167057306</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>104</v>
+        <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>209.7414812894081</v>
+        <v>191.5352078889212</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>105</v>
+        <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>213.776427073466</v>
+        <v>195.2199066658106</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>106</v>
+        <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>217.8403085010486</v>
+        <v>198.9310293740265</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>107</v>
+        <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>221.9312324645573</v>
+        <v>202.6668472341436</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>108</v>
+        <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>226.0472598583764</v>
+        <v>206.4255894615041</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>109</v>
+        <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>230.1864091897386</v>
+        <v>210.205446563647</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>110</v>
+        <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>234.3466603869537</v>
+        <v>214.0045738179703</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>111</v>
+        <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>238.5259587976879</v>
+        <v>217.8210949229457</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>112</v>
+        <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>242.7222193699614</v>
+        <v>221.6531058161913</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>113</v>
+        <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>246.9333310069446</v>
+        <v>225.4986786512572</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>114</v>
+        <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>251.1571610864034</v>
+        <v>229.355865924767</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>115</v>
+        <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>255.3915601346864</v>
+        <v>233.2227047446877</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>116</v>
+        <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>259.6343666445004</v>
+        <v>237.0972212299049</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>117</v>
+        <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>263.8834120247411</v>
+        <v>240.9774350303924</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>118</v>
+        <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>268.1365256704859</v>
+        <v>244.861363957112</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>119</v>
+        <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>272.3915401401329</v>
+        <v>248.7470287097589</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>120</v>
+        <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>276.646296426395</v>
+        <v>252.6324576902162</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>121</v>
+        <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>280.8986493070944</v>
+        <v>256.5156918888818</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>122</v>
+        <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>285.1464727613944</v>
+        <v>260.3947898307531</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>123</v>
+        <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>289.3876654365126</v>
+        <v>264.2678325676109</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>124</v>
+        <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>293.6201561496594</v>
+        <v>268.1329287023707</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>125</v>
+        <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>297.841909409405</v>
+        <v>271.9882194311769</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>126</v>
+        <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>302.0509309407959</v>
+        <v>275.8318835889193</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>127</v>
+        <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>306.2452731976652</v>
+        <v>279.6621426830574</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>128</v>
+        <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>310.4230408463208</v>
+        <v>283.4772659013049</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>129</v>
+        <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>314.582396203444</v>
+        <v>287.2755750775008</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>130</v>
+        <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>318.7215646125065</v>
+        <v>291.0554496013349</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>131</v>
+        <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>322.8388397416953</v>
+        <v>294.8153312563945</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>132</v>
+        <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>326.9325887869194</v>
+        <v>298.5537289715328</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>133</v>
+        <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>331.0012575643566</v>
+        <v>302.2692234713658</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>134</v>
+        <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>335.0433754754068</v>
+        <v>305.9604718102494</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>135</v>
+        <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>339.057560329504</v>
+        <v>309.6262117764566</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>136</v>
+        <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>343.0425230086564</v>
+        <v>313.2652661518181</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>137</v>
+        <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>346.9970719588374</v>
+        <v>316.8765468132468</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>138</v>
+        <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>350.9201174941728</v>
+        <v>320.4590586633055</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>139</v>
+        <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>354.8106758994981</v>
+        <v>324.0119033766492</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>140</v>
+        <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>358.6678733180921</v>
+        <v>327.5342829502903</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>141</v>
+        <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>362.4909494121958</v>
+        <v>331.0255030463709</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>142</v>
+        <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>366.2792607837511</v>
+        <v>334.4849761159714</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>143</v>
+        <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>370.0322841448067</v>
+        <v>337.9122242943128</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>144</v>
+        <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>373.7496192265038</v>
+        <v>341.3068820572338</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>145</v>
+        <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>377.4309914178814</v>
+        <v>344.668698630938</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>146</v>
+        <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>381.0762541249479</v>
+        <v>347.9975401462906</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>147</v>
+        <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>384.6853908431225</v>
+        <v>351.2933915313643</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>148</v>
+        <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>388.2585169359411</v>
+        <v>354.5563581357482</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>149</v>
+        <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>391.7958811140243</v>
+        <v>357.7866670811355</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>395.2978666103174</v>
+        <v>360.9846683345498</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>151</v>
+        <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>398.7649920471194</v>
+        <v>364.1508355001117</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>152</v>
+        <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>402.1979119930796</v>
+        <v>367.2857663276872</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>153</v>
+        <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>405.597417208017</v>
+        <v>370.3901829364555</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>154</v>
+        <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>408.9644345754224</v>
+        <v>373.4649317532704</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>155</v>
+        <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>412.3000267236396</v>
+        <v>376.5109831667239</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>156</v>
+        <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>415.6053913365875</v>
+        <v>379.5294308977003</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>157</v>
+        <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>418.8818601579724</v>
+        <v>382.5214910900263</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>158</v>
+        <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>422.1308976919648</v>
+        <v>385.4885011239331</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>159</v>
+        <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>425.3540996058896</v>
+        <v>388.4319181573987</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>160</v>
+        <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>428.5531908406689</v>
+        <v>391.3533174006109</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>161</v>
+        <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>431.7300234360976</v>
+        <v>394.254390130016</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>162</v>
+        <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>434.8865740790718</v>
+        <v>397.1369414493696</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>163</v>
+        <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>438.0249413832931</v>
+        <v>400.0028878055717</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>164</v>
+        <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>441.1473429108728</v>
+        <v>402.8542542688058</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>165</v>
+        <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>444.256111946259</v>
+        <v>405.6931715865001</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>166</v>
+        <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>447.3536940338859</v>
+        <v>408.5218730215203</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>167</v>
+        <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>450.4426432921221</v>
+        <v>411.3426909860804</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>168</v>
+        <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>453.5256185165977</v>
+        <v>414.1580534833135</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>169</v>
+        <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>456.6053790863556</v>
+        <v>416.9704803687838</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>170</v>
+        <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>459.6847806874237</v>
+        <v>419.7825794452664</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>171</v>
+        <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>462.7667708686078</v>
+        <v>422.5970424043135</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>172</v>
+        <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>465.8543844449514</v>
+        <v>425.4166406287086</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>173</v>
+        <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>468.9507387645386</v>
+        <v>428.2442208701277</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>174</v>
+        <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>472.059028855071</v>
+        <v>431.0827008170092</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>175</v>
+        <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>475.1825224666296</v>
+        <v>433.9350645676213</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>176</v>
+        <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>478.3245550272807</v>
+        <v>436.8043580235385</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>177</v>
+        <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>481.4885245286547</v>
+        <v>439.6936842191691</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>178</v>
+        <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>484.6778863583176</v>
+        <v>442.6061986026952</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>179</v>
+        <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>487.8961480962602</v>
+        <v>445.5451042842436</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>180</v>
+        <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>491.1468642924913</v>
+        <v>448.5136472668016</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>181</v>
+        <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>494.4336312426312</v>
+        <v>451.5151116753077</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>182</v>
+        <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>497.760081778408</v>
+        <v>454.5528149993492</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>183</v>
+        <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>501.1298800899811</v>
+        <v>457.6301033649266</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>184</v>
+        <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>504.5467165960152</v>
+        <v>460.7503468498226</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>185</v>
+        <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>508.0143028778614</v>
+        <v>463.9169348575126</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>186</v>
+        <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>511.5363666937089</v>
+        <v>467.133271564106</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>187</v>
+        <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>515.1166470873447</v>
+        <v>470.4027714516816</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>188</v>
+        <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>518.7588896072469</v>
+        <v>473.7288549423801</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>189</v>
+        <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>522.4668416494161</v>
+        <v>477.1149441454932</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>190</v>
+        <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>526.244247937987</v>
+        <v>480.5644587303741</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>191</v>
+        <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>530.094846157221</v>
+        <v>484.0808119375876</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>192</v>
+        <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>534.0223627462893</v>
+        <v>487.6674067387199</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>193</v>
+        <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>538.0305088694646</v>
+        <v>491.3276321563722</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>194</v>
+        <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>542.1229765726434</v>
+        <v>495.0648597543096</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>195</v>
+        <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>546.3034351362454</v>
+        <v>498.882440306941</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>196</v>
+        <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>550.5755276342798</v>
+        <v>502.78370065707</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>197</v>
+        <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>554.9428677084873</v>
+        <v>506.7719407700533</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>198</v>
+        <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>559.409036565197</v>
+        <v>510.8504309913395</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>199</v>
+        <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>563.9775802025958</v>
+        <v>515.0224095144214</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>568.6520068744517</v>
+        <v>519.2910800647168</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>201</v>
+        <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>573.4359127552156</v>
+        <v>523.6597266565124</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>202</v>
+        <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>578.3324822284457</v>
+        <v>528.1312572580513</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>203</v>
+        <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>583.3452124218526</v>
+        <v>532.7088654344733</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>204</v>
+        <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>588.4774402240812</v>
+        <v>537.3955984211483</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>205</v>
+        <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>593.732455815939</v>
+        <v>542.1944608000078</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>206</v>
+        <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>599.1135016419311</v>
+        <v>547.1084135603541</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>207</v>
+        <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>604.6237716405564</v>
+        <v>552.1403733959695</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>208</v>
+        <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>610.2664107331074</v>
+        <v>557.2932122382902</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>209</v>
+        <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>616.0445145703145</v>
+        <v>562.5697570250419</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>210</v>
+        <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>621.9611295354156</v>
+        <v>567.9727897030446</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>211</v>
+        <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>628.0192530012442</v>
+        <v>573.5050474629827</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>212</v>
+        <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>634.2218338387219</v>
+        <v>579.1692232037598</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>213</v>
+        <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>640.571773173518</v>
+        <v>584.9679662234774</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>214</v>
+        <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>647.0719253861583</v>
+        <v>590.903883132731</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>215</v>
+        <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>653.7250993514375</v>
+        <v>596.9795389864368</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>216</v>
+        <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>660.534059911892</v>
+        <v>603.1974586294024</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>217</v>
+        <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>667.5015295792214</v>
+        <v>609.5601282500593</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>218</v>
+        <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>674.6301904577754</v>
+        <v>616.0699971369842</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>219</v>
+        <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>681.9226863839489</v>
+        <v>622.7294796325876</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>220</v>
+        <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>689.3816252725253</v>
+        <v>629.5409572757866</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>221</v>
+        <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>697.0095816653087</v>
+        <v>636.5067811294068</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>222</v>
+        <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>704.8090994714399</v>
+        <v>643.62927428263</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>223</v>
+        <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>712.7826948937827</v>
+        <v>650.9107345233597</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>224</v>
+        <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>720.9328595301014</v>
+        <v>658.3534371702063</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>225</v>
+        <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>729.2620636439375</v>
+        <v>665.9596380594409</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>226</v>
+        <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>737.7727595926742</v>
+        <v>673.7315766754909</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>227</v>
+        <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>746.4673854062735</v>
+        <v>681.6714794190318</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>228</v>
+        <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>755.3483685061262</v>
+        <v>689.7815630030281</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>229</v>
+        <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>764.4181295556517</v>
+        <v>698.0640379690873</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>230</v>
+        <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>773.6790864315643</v>
+        <v>706.5211123140078</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>231</v>
+        <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>783.1336583079127</v>
+        <v>715.1549952193088</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>232</v>
+        <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>792.7842698426289</v>
+        <v>723.9679008743735</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>233</v>
+        <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>802.6333554560623</v>
+        <v>732.9620523835915</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>234</v>
+        <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>812.6833636932939</v>
+        <v>742.1396857500092</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>235</v>
+        <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>822.9367616592695</v>
+        <v>751.5030539254782</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>236</v>
+        <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>833.3960395174485</v>
+        <v>761.0544309188067</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>237</v>
+        <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>844.0637150425306</v>
+        <v>770.7961159532938</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>238</v>
+        <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>854.9423382172205</v>
+        <v>780.7304376644787</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>239</v>
+        <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>866.0344958629983</v>
+        <v>790.8597583289458</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>240</v>
+        <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>877.3428162965496</v>
+        <v>801.1864781165597</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>241</v>
+        <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>888.8699740009251</v>
+        <v>811.7130393561529</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>242</v>
+        <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>900.6186943022183</v>
+        <v>822.4419308062517</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>243</v>
+        <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>912.5917580432069</v>
+        <v>833.3756919230296</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>244</v>
+        <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>924.792006242883</v>
+        <v>844.516917115375</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>245</v>
+        <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>937.2223447341109</v>
+        <v>855.8682599799839</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>246</v>
+        <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>949.8857487686977</v>
+        <v>867.4324375066946</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>247</v>
+        <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>962.7852675812107</v>
+        <v>879.212234246151</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>248</v>
+        <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>975.924028901922</v>
+        <v>891.2105064310077</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>249</v>
+        <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>989.3052434098323</v>
+        <v>903.4301860424165</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>250</v>
+        <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>1002.93220911543</v>
+        <v>915.8742848123463</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>251</v>
+        <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>1016.808315665182</v>
+        <v>928.5458981544316</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>252</v>
+        <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>1030.937048557276</v>
+        <v>941.4482090137712</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>253</v>
+        <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>1045.321993258759</v>
+        <v>954.5844916266868</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>254</v>
+        <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>1059.966839215675</v>
+        <v>967.9581151827665</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>255</v>
+        <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>1074.875383745536</v>
+        <v>981.5725473794575</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>256</v>
+        <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>1090.051535802161</v>
+        <v>995.4313578601016</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>257</v>
+        <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>1105.499319603209</v>
+        <v>1009.538221526589</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>258</v>
+        <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>1121.222878110685</v>
+        <v>1023.896921717743</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>259</v>
+        <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1137.22647635233</v>
+        <v>1038.5113532424</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>260</v>
+        <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1153.514504575789</v>
+        <v>1053.385525259791</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>261</v>
+        <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1170.091481222206</v>
+        <v>1068.523563995009</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>262</v>
+        <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1186.962055709269</v>
+        <v>1083.929715280489</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>263</v>
+        <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1204.131011013875</v>
+        <v>1099.608346914475</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>264</v>
+        <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1221.603266038248</v>
+        <v>1115.563950821763</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>265</v>
+        <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1239.38387775319</v>
+        <v>1131.801145010901</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>266</v>
+        <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1257.478043101879</v>
+        <v>1148.324675312737</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>267</v>
+        <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1275.891100652559</v>
+        <v>1165.13941688965</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>268</v>
+        <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1294.628531988423</v>
+        <v>1182.25037550478</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>269</v>
+        <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1313.695962819045</v>
+        <v>1199.662688536991</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>270</v>
+        <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1333.099163801553</v>
+        <v>1217.38162573076</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>271</v>
+        <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1352.844051055298</v>
+        <v>1235.412589666172</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>272</v>
+        <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1372.936686356854</v>
+        <v>1253.761115936995</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>273</v>
+        <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1393.383276999546</v>
+        <v>1272.432873022394</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>274</v>
+        <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1414.190175301443</v>
+        <v>1291.433661837643</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>275</v>
+        <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1435.363877747252</v>
+        <v>1310.769414950497</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>276</v>
+        <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1456.911023746101</v>
+        <v>1330.446195446806</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>277</v>
+        <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1478.838393989558</v>
+        <v>1350.470195431066</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>278</v>
+        <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1501.152908391872</v>
+        <v>1370.847734145452</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>279</v>
+        <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1523.861623595688</v>
+        <v>1391.585255692044</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>280</v>
+        <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1546.971730024446</v>
+        <v>1412.68932634109</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>281</v>
+        <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1570.490548463777</v>
+        <v>1434.166631409149</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>282</v>
+        <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1594.425526152969</v>
+        <v>1456.023971689826</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>283</v>
+        <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1618.784232367835</v>
+        <v>1478.268259420072</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>284</v>
+        <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1643.574353476406</v>
+        <v>1500.906513765048</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>285</v>
+        <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1668.803687446583</v>
+        <v>1523.94585580254</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>286</v>
+        <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1694.4801377888</v>
+        <v>1547.393502991415</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>287</v>
+        <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1720.611706912248</v>
+        <v>1571.25676310455</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>288</v>
+        <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1747.206488876539</v>
+        <v>1595.543027609674</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>289</v>
+        <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1774.272661519004</v>
+        <v>1620.259764480044</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>290</v>
+        <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1801.818477938434</v>
+        <v>1645.414510417427</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>291</v>
+        <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1829.852257316545</v>
+        <v>1671.014862470294</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>292</v>
+        <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1858.382375059791</v>
+        <v>1697.068469031354</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>293</v>
+        <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1887.417252240606</v>
+        <v>1723.583020195332</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>294</v>
+        <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1916.965344324357</v>
+        <v>1750.566237464467</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>295</v>
+        <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1947.035129162849</v>
+        <v>1778.025862784213</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>296</v>
+        <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1977.635094239067</v>
+        <v>1805.969646895187</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>297</v>
+        <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>2008.773723148338</v>
+        <v>1834.40533698781</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>298</v>
+        <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>2040.459481303216</v>
+        <v>1863.340663648054</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>299</v>
+        <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>2072.700800848065</v>
+        <v>1892.783327081497</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>300</v>
+        <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>2105.506064772306</v>
+        <v>1922.740982605587</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>301</v>
+        <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>2138.883590216051</v>
+        <v>1953.221225404408</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>302</v>
+        <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>2172.841610956595</v>
+        <v>1984.231574535401</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>303</v>
+        <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>2207.388259072309</v>
+        <v>2015.7794561849</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>304</v>
+        <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>2242.531545781867</v>
+        <v>2047.872186170569</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>305</v>
+        <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>2278.279341455783</v>
+        <v>2080.516951688013</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>306</v>
+        <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>2314.63935480277</v>
+        <v>2113.720792303831</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>307</v>
+        <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>2351.619111237666</v>
+        <v>2147.490580201277</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>308</v>
+        <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>2389.225930436752</v>
+        <v>2181.832999683855</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>309</v>
+        <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>2427.466903090769</v>
+        <v>2216.75452594625</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>310</v>
+        <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>2466.348866874398</v>
+        <v>2252.261403129742</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>311</v>
+        <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>2505.878381648089</v>
+        <v>2288.359621676602</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>312</v>
+        <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>2546.061703913907</v>
+        <v>2325.05489500325</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>313</v>
+        <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>2586.904760555955</v>
+        <v>2362.352635520108</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>314</v>
+        <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>2628.413121894818</v>
+        <v>2400.257930025001</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>315</v>
+        <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>2670.591974091679</v>
+        <v>2438.775514502697</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>316</v>
+        <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>2713.446090947036</v>
+        <v>2477.909748371586</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>317</v>
+        <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2756.97980513612</v>
+        <v>2517.664588215964</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>318</v>
+        <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2801.196978935681</v>
+        <v>2558.043561053834</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>319</v>
+        <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2846.100974501807</v>
+        <v>2599.049737194707</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>320</v>
+        <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2891.694623756499</v>
+        <v>2640.685702740131</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>321</v>
+        <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2937.980197959017</v>
+        <v>2682.953531796343</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>322</v>
+        <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2984.959377030616</v>
+        <v>2725.854758461723</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>323</v>
+        <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>3032.63321872198</v>
+        <v>2769.390348670602</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>324</v>
+        <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>3081.002127703196</v>
+        <v>2813.560671966328</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>325</v>
+        <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>3130.065824675274</v>
+        <v>2858.365473294011</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>326</v>
+        <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>3179.823315602536</v>
+        <v>2903.80384490365</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>327</v>
+        <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>3230.272861170237</v>
+        <v>2949.87419845893</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>328</v>
+        <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>3281.41194658164</v>
+        <v>2996.574237456018</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>329</v>
+        <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>3333.237251812484</v>
+        <v>3043.900930060042</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>330</v>
+        <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>3385.74462244718</v>
+        <v>3091.850482472806</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>331</v>
+        <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>3438.929041224614</v>
+        <v>3140.418312948511</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>332</v>
+        <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>3492.784600431652</v>
+        <v>3189.599026583601</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>333</v>
+        <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>3547.304475281409</v>
+        <v>3239.38639100589</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>334</v>
+        <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>3602.480898422219</v>
+        <v>3289.773313096231</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>335</v>
+        <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>3658.305135726643</v>
+        <v>3340.751816879131</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>336</v>
+        <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>3714.76746351125</v>
+        <v>3392.313022719929</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>337</v>
+        <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>3771.857147342374</v>
+        <v>3444.447127970283</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>338</v>
+        <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>3829.56242259089</v>
+        <v>3497.143389210858</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>339</v>
+        <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>3887.870476889377</v>
+        <v>3550.390106231271</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>340</v>
+        <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>3946.767434657022</v>
+        <v>3604.174607898279</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>341</v>
+        <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>4006.238343855126</v>
+        <v>3658.483240060958</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>342</v>
+        <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>4066.267165131832</v>
+        <v>3713.301355637705</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>343</v>
+        <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>4126.836763521422</v>
+        <v>3768.613307036059</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>344</v>
+        <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>4187.928902849932</v>
+        <v>3824.402441043935</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>345</v>
+        <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>4249.524243014142</v>
+        <v>3880.6510963448</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>346</v>
+        <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>4311.602340273368</v>
+        <v>3937.340603784142</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>347</v>
+        <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>4374.141650715214</v>
+        <v>3994.451289534381</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>348</v>
+        <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>4437.119537024179</v>
+        <v>4051.962481275933</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>349</v>
+        <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>4500.512278700931</v>
+        <v>4109.852517529426</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>350</v>
+        <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>4564.295085849742</v>
+        <v>4168.098760246334</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>351</v>
+        <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>4628.442116660079</v>
+        <v>4226.6776107731</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>352</v>
+        <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>4692.926498686009</v>
+        <v>4285.56452928343</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>353</v>
+        <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>4757.720354026191</v>
+        <v>4344.734057772562</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>354</v>
+        <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>4822.794828487157</v>
+        <v>4404.159846689085</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>355</v>
+        <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>4888.120124804935</v>
+        <v>4463.81468527281</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>356</v>
+        <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>4953.665539984847</v>
+        <v>5137.183946017288</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>357</v>
+        <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>5019.399506802343</v>
+        <v>5205.353158556394</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>358</v>
+        <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>5085.289639495493</v>
+        <v>5273.68432244705</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>359</v>
+        <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>5151.302783660823</v>
+        <v>5342.143055014871</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>360</v>
+        <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>5217.405070349569</v>
+        <v>5410.694232568432</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>361</v>
+        <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>5283.561974335618</v>
+        <v>5479.302050825856</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>362</v>
+        <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>5349.738376525035</v>
+        <v>5547.930089636425</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>363</v>
+        <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>5415.898630435345</v>
+        <v>5616.541381922724</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>364</v>
+        <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>5482.006632670409</v>
+        <v>5685.0984867664</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>365</v>
+        <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>5548.025897296548</v>
+        <v>5753.563566539692</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>366</v>
+        <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>5613.919633989119</v>
+        <v>5821.898467947105</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>367</v>
+        <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>5679.650829825843</v>
+        <v>5890.064806848937</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>368</v>
+        <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>5745.182334555058</v>
+        <v>5958.024056688463</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>369</v>
+        <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>5810.476949170505</v>
+        <v>6025.737640348148</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>370</v>
+        <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>5875.497517594971</v>
+        <v>6093.167025229895</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>371</v>
+        <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>5940.207021253184</v>
+        <v>5210.736942727913</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>372</v>
+        <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>6004.568676306652</v>
+        <v>5267.194849410677</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>373</v>
+        <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>6068.546033300438</v>
+        <v>5323.315650654282</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>374</v>
+        <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>6132.103078951506</v>
+        <v>5379.067755683577</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>375</v>
+        <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>6195.204339804013</v>
+        <v>5434.420047258678</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>376</v>
+        <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>6257.814987454034</v>
+        <v>5489.341973977868</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>377</v>
+        <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>6319.900945036798</v>
+        <v>5543.803643687975</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>378</v>
+        <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>6381.428994657786</v>
+        <v>5597.775917722701</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>379</v>
+        <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>6442.366885440531</v>
+        <v>5651.230505681922</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>380</v>
+        <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>6502.683441852053</v>
+        <v>5704.140060454534</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>381</v>
+        <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>6562.348671967316</v>
+        <v>4203.838755945564</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>382</v>
+        <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>6621.333875314185</v>
+        <v>4241.624661000586</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>383</v>
+        <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>6679.611749958101</v>
+        <v>4278.957451482866</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>384</v>
+        <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>6737.156498460518</v>
+        <v>4315.820601560365</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>385</v>
+        <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>6793.943932362195</v>
+        <v>4352.198616112737</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>386</v>
+        <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>6849.951574832926</v>
+        <v>4388.077096488729</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>387</v>
+        <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>6905.158761135494</v>
+        <v>4423.442804863361</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>388</v>
+        <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>6959.546736556296</v>
+        <v>4458.283726972249</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>389</v>
+        <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>7013.098751454428</v>
+        <v>4492.589133000035</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>390</v>
+        <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>7065.800153095356</v>
+        <v>4526.349636409002</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>391</v>
+        <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>7117.63847393021</v>
+        <v>7400.161573106768</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>392</v>
+        <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>7168.60351600889</v>
+        <v>7453.149589756364</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>393</v>
+        <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>7218.68743119649</v>
+        <v>7505.221504614012</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>394</v>
+        <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>7267.884796900644</v>
+        <v>7556.371679846349</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>395</v>
+        <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>7316.192687004169</v>
+        <v>7606.597073188725</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>396</v>
+        <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>7363.610737717316</v>
+        <v>7655.897306411346</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>397</v>
+        <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>7410.141208078715</v>
+        <v>7704.274728221711</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>398</v>
+        <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>7455.78903482335</v>
+        <v>7751.734471310482</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>399</v>
+        <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>7500.561881377316</v>
+        <v>7798.284503291008</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>7544.470180707436</v>
+        <v>7843.935671249782</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>401</v>
+        <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>7587.527171800393</v>
+        <v>12089.7757232225</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>402</v>
+        <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>7629.748929530714</v>
+        <v>12157.05081430843</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>403</v>
+        <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>7671.154387679013</v>
+        <v>12223.02523408918</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>404</v>
+        <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>7711.765354889004</v>
+        <v>12287.73373191133</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>405</v>
+        <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>7751.606523335566</v>
+        <v>12351.21565166777</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>406</v>
+        <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>7790.70546987729</v>
+        <v>12413.51493363417</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>407</v>
+        <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>7829.092649496252</v>
+        <v>12474.68010401605</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>408</v>
+        <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>7866.801380775589</v>
+        <v>12534.76425180913</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>409</v>
+        <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>7903.867823229562</v>
+        <v>12593.82499267761</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>410</v>
+        <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>7940.330946229377</v>
+        <v>12651.92441944137</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>411</v>
+        <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>7976.232489325406</v>
+        <v>12105.70066544271</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>412</v>
+        <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>8011.616913711767</v>
+        <v>12159.4043721004</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>413</v>
+        <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>8046.531344607261</v>
+        <v>12212.39475946571</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>414</v>
+        <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>8081.025504303417</v>
+        <v>12264.74729213655</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>415</v>
+        <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>8115.151635630427</v>
+        <v>12316.54126018691</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>416</v>
+        <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>8148.964415576377</v>
+        <v>12367.85964806489</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>417</v>
+        <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>8182.520858802497</v>
+        <v>12418.78898815572</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>418</v>
+        <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>8215.880210780131</v>
+        <v>12469.4191985934</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>419</v>
+        <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>8249.103830280888</v>
+        <v>12519.84340491348</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>420</v>
+        <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>8282.255060934014</v>
+        <v>12570.15774511293</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>421</v>
+        <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>8315.399091594356</v>
+        <v>12620.46115772751</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>422</v>
+        <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>8348.60280522689</v>
+        <v>12670.85515248061</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>423</v>
+        <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>8381.934616072012</v>
+        <v>12721.44356314544</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>424</v>
+        <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>8415.464294812489</v>
+        <v>12772.33228219719</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>425</v>
+        <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>8449.262781529833</v>
+        <v>12823.62897693279</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>426</v>
+        <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>8483.401986233823</v>
+        <v>12875.44278673031</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>427</v>
+        <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>8517.954576775839</v>
+        <v>12927.88400116044</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>428</v>
+        <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>8552.993754016617</v>
+        <v>12981.06371875367</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>429</v>
+        <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>8588.593014140919</v>
+        <v>13035.09348626017</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>430</v>
+        <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>8624.8258980722</v>
+        <v>13090.08491833099</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>431</v>
+        <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>8661.76572801634</v>
+        <v>13146.14929766479</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>432</v>
+        <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>8699.485331208694</v>
+        <v>13203.39715573274</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>433</v>
+        <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>8738.0567510567</v>
+        <v>13261.93783437344</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>434</v>
+        <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>8777.550945919702</v>
+        <v>13321.87902862448</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>435</v>
+        <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>8818.037475923278</v>
+        <v>13383.32631139385</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>436</v>
+        <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>8859.584178264617</v>
+        <v>13446.38264066379</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>437</v>
+        <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>8902.256831646377</v>
+        <v>13511.14785019487</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>438</v>
+        <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>8946.118810558019</v>
+        <v>13577.71812482126</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>439</v>
+        <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>8991.230730319539</v>
+        <v>13646.1854617259</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>440</v>
+        <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>9037.650083924524</v>
+        <v>13716.6371192694</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>441</v>
+        <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>9085.430871891924</v>
+        <v>13789.15505520801</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>442</v>
+        <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>9134.623226523878</v>
+        <v>13863.81535642161</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>443</v>
+        <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>9185.273032125018</v>
+        <v>13940.68766251234</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>444</v>
+        <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>9237.421542935028</v>
+        <v>14019.83458593257</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>445</v>
+        <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>9291.105000707948</v>
+        <v>14101.31113157673</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>446</v>
+        <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>9346.354254062537</v>
+        <v>14185.1641190611</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>447</v>
+        <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>9403.194381929845</v>
+        <v>14271.43161122209</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>448</v>
+        <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>9461.644323560398</v>
+        <v>14360.14235257009</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>449</v>
+        <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>9521.716517804911</v>
+        <v>14451.31522181803</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>450</v>
+        <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>9583.416554484642</v>
+        <v>14544.95870275859</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
@@ -445,7 +445,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>18259.18871024664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>21.99771500693703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>22.35501739751943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>22.72018747415721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>23.09349612067184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>23.47522521919411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>23.86566797991999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>24.26512926851581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>24.67392593006804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>25.09238710808253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>25.52085455752959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>25.95968295059534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>26.40924017339148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>26.86990761259826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>27.34208043001852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>27.82616782384388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>28.32259327456793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>28.83179477403698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>29.35422503577518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>29.89035168453679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>30.4406574235003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -613,7 +613,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>31.005640176754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -621,7 +621,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>31.58581320528901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>32.18170519445266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>32.79386031053316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>33.42283822468092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +653,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>34.06921410174754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +661,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>34.73357855202004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -669,7 +669,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>35.41653754375653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -677,7 +677,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>36.11871227415051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -685,7 +685,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>36.84073899679978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>37.58326880346247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -701,7 +701,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>38.34696735797368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -709,7 +709,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>39.13251458038019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -717,7 +717,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>39.94060427916613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -725,7 +725,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>40.77194372980077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -733,7 +733,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>41.62725319751743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -741,7 +741,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>42.50726540284681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -749,7 +749,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>43.41272492801646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -757,7 +757,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>44.34438756276081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -765,7 +765,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>45.30301958797527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -773,7 +773,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>46.28939699628943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -781,7 +781,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>47.30430464786993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -789,7 +789,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>48.34853536101957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -797,7 +797,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>49.42288893642074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -805,7 +805,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>50.52817111448525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -813,7 +813,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>51.66519246568422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -821,7 +821,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>52.83476721321507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -829,7 +829,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>54.03771198839962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -837,7 +837,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>55.27484451907639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -845,7 +845,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>56.54698225131961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -853,7 +853,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>57.85494090554295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -861,7 +861,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>59.19953296782885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -869,7 +869,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>60.58156611819201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -877,7 +877,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>62.00184159698965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -885,7 +885,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>63.46115251178984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -893,7 +893,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>64.96028208697609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -901,7 +901,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>66.50000185831631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -909,7 +909,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>68.08106981580327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -917,7 +917,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>69.70422849785771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -925,7 +925,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>71.37020304036398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -933,7 +933,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>73.07969918444853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -941,7 +941,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>74.83340124748987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -949,7 +949,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>76.631970061288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -957,7 +957,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>78.47604088306278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -965,7 +965,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>80.36622128364627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -973,7 +973,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>82.3030890189283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -981,7 +981,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>84.2871898901698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -989,7 +989,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>86.31903559915621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -997,7 +997,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>88.39910160460747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1005,7 +1005,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>90.52782498667966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1013,7 +1013,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>92.70560232603259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1021,7 +1021,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>94.93278760497715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1029,7 +1029,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>97.20969013778004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1037,7 +1037,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>99.53657253773689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1045,7 +1045,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>101.9136487286799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1053,7 +1053,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>104.3410820088526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1061,7 +1061,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>106.81898317493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1069,7 +1069,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>109.3474087144767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1077,7 +1077,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>111.9263590747855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1085,7 +1085,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>114.5557770163513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1093,7 +1093,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>117.2355460591294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1101,7 +1101,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>119.9654890297508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1109,7 +1109,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>122.7453667177182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1117,7 +1117,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>125.5748766486934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1125,7 +1125,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>128.453651982429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1133,7 +1133,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>131.3812605435118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1141,7 +1141,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>134.3572039921193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1149,7 +1149,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>137.3809171417924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1157,7 +1157,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>140.4517674318333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1165,7 +1165,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>143.5690545604813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1173,7 +1173,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>146.7320102852427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1181,7 +1181,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>149.9397983965323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1189,7 +1189,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>153.1915148699795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1197,7 +1197,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>156.4861882023152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1205,7 +1205,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>159.8227799356874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1213,7 +1213,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>163.2001853742121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1221,7 +1221,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>166.6172344963555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1229,7 +1229,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>170.0726930660104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1237,7 +1237,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>173.5652639444205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1245,7 +1245,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>177.0935886049974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -1253,7 +1253,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>180.6562488515202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -1261,7 +1261,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>184.2517687402285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -1269,7 +1269,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>187.8786167057306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -1277,7 +1277,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>191.5352078889212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -1285,7 +1285,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>195.2199066658106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -1293,7 +1293,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>198.9310293740265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1301,7 +1301,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>202.6668472341436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1309,7 +1309,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>206.4255894615041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -1317,7 +1317,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>210.205446563647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -1325,7 +1325,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>214.0045738179703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1333,7 +1333,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>217.8210949229457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -1341,7 +1341,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>221.6531058161913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1349,7 +1349,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>225.4986786512572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -1357,7 +1357,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>229.355865924767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1365,7 +1365,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>233.2227047446877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>237.0972212299049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -1381,7 +1381,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>240.9774350303924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -1389,7 +1389,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>244.861363957112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -1397,7 +1397,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>248.7470287097589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -1405,7 +1405,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>252.6324576902162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -1413,7 +1413,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>256.5156918888818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -1421,7 +1421,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>260.3947898307531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -1429,7 +1429,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>264.2678325676109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -1437,7 +1437,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>268.1329287023707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -1445,7 +1445,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>271.9882194311769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -1453,7 +1453,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>275.8318835889193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -1461,7 +1461,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>279.6621426830574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -1469,7 +1469,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>283.4772659013049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -1477,7 +1477,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>287.2755750775008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -1485,7 +1485,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>291.0554496013349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -1493,7 +1493,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>294.8153312563945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -1501,7 +1501,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>298.5537289715328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -1509,7 +1509,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>302.2692234713658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -1517,7 +1517,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>305.9604718102494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -1525,7 +1525,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>309.6262117764566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -1533,7 +1533,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>313.2652661518181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -1541,7 +1541,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>316.8765468132468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -1549,7 +1549,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>320.4590586633055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -1557,7 +1557,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>324.0119033766492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -1565,7 +1565,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>327.5342829502903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -1573,7 +1573,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>331.0255030463709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -1581,7 +1581,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>334.4849761159714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -1589,7 +1589,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>337.9122242943128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -1597,7 +1597,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>341.3068820572338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -1605,7 +1605,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>344.668698630938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -1613,7 +1613,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>347.9975401462906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -1621,7 +1621,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>351.2933915313643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -1629,7 +1629,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>354.5563581357482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -1637,7 +1637,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>357.7866670811355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -1645,7 +1645,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>360.9846683345498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -1653,7 +1653,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>364.1508355001117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -1661,7 +1661,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>367.2857663276872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -1669,7 +1669,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>370.3901829364555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -1677,7 +1677,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>373.4649317532704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -1685,7 +1685,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>376.5109831667239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -1693,7 +1693,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>379.5294308977003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -1701,7 +1701,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>382.5214910900263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -1709,7 +1709,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>385.4885011239331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -1717,7 +1717,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>388.4319181573987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -1725,7 +1725,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>391.3533174006109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -1733,7 +1733,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>394.254390130016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -1741,7 +1741,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>397.1369414493696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -1749,7 +1749,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>400.0028878055717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -1757,7 +1757,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>402.8542542688058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -1765,7 +1765,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>405.6931715865001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -1773,7 +1773,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>408.5218730215203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -1781,7 +1781,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>411.3426909860804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -1789,7 +1789,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>414.1580534833135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -1797,7 +1797,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>416.9704803687838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -1805,7 +1805,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>419.7825794452664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -1813,7 +1813,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>422.5970424043135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -1821,7 +1821,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>425.4166406287086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -1829,7 +1829,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>428.2442208701277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -1837,7 +1837,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>431.0827008170092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -1845,7 +1845,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>433.9350645676213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -1853,7 +1853,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>436.8043580235385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -1861,7 +1861,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>439.6936842191691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -1869,7 +1869,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>442.6061986026952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -1877,7 +1877,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>445.5451042842436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -1885,7 +1885,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>448.5136472668016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -1893,7 +1893,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>451.5151116753077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -1901,7 +1901,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>454.5528149993492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -1909,7 +1909,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>457.6301033649266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -1917,7 +1917,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>460.7503468498226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -1925,7 +1925,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>463.9169348575126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -1933,7 +1933,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>467.133271564106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -1941,7 +1941,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>470.4027714516816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -1949,7 +1949,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>473.7288549423801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -1957,7 +1957,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>477.1149441454932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -1965,7 +1965,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>480.5644587303741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -1973,7 +1973,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>484.0808119375876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -1981,7 +1981,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>487.6674067387199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -1989,7 +1989,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>491.3276321563722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -1997,7 +1997,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>495.0648597543096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -2005,7 +2005,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>498.882440306941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -2013,7 +2013,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>502.78370065707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -2021,7 +2021,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>506.7719407700533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -2029,7 +2029,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>510.8504309913395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -2037,7 +2037,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>515.0224095144214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -2045,7 +2045,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>519.2910800647168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -2053,7 +2053,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>523.6597266565124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -2061,7 +2061,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>528.1312572580513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -2069,7 +2069,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>532.7088654344733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -2077,7 +2077,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>537.3955984211483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -2085,7 +2085,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>542.1944608000078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -2093,7 +2093,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>547.1084135603541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -2101,7 +2101,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>552.1403733959695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -2109,7 +2109,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>557.2932122382902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -2117,7 +2117,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>562.5697570250419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -2125,7 +2125,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>567.9727897030446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -2133,7 +2133,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>573.5050474629827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -2141,7 +2141,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>579.1692232037598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -2149,7 +2149,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>584.9679662234774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -2157,7 +2157,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>590.903883132731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -2165,7 +2165,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>596.9795389864368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -2173,7 +2173,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>603.1974586294024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -2181,7 +2181,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>609.5601282500593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -2189,7 +2189,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>616.0699971369842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -2197,7 +2197,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>622.7294796325876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -2205,7 +2205,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>629.5409572757866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -2213,7 +2213,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>636.5067811294068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -2221,7 +2221,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>643.62927428263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -2229,7 +2229,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>650.9107345233597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -2237,7 +2237,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>658.3534371702063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>665.9596380594409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -2253,7 +2253,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>673.7315766754909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -2261,7 +2261,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>681.6714794190318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -2269,7 +2269,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>689.7815630030281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -2277,7 +2277,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>698.0640379690873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -2285,7 +2285,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>706.5211123140078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -2293,7 +2293,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>715.1549952193088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -2301,7 +2301,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>723.9679008743735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -2309,7 +2309,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>732.9620523835915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -2317,7 +2317,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>742.1396857500092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -2325,7 +2325,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>751.5030539254782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -2333,7 +2333,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>761.0544309188067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -2341,7 +2341,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>770.7961159532938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -2349,7 +2349,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>780.7304376644787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -2357,7 +2357,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>790.8597583289458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -2365,7 +2365,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>801.1864781165597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -2373,7 +2373,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>811.7130393561529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -2381,7 +2381,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>822.4419308062517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -2389,7 +2389,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>833.3756919230296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -2397,7 +2397,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>844.516917115375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -2405,7 +2405,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>855.8682599799839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -2413,7 +2413,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>867.4324375066946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -2421,7 +2421,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>879.212234246151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -2429,7 +2429,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>891.2105064310077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -2437,7 +2437,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>903.4301860424165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -2445,7 +2445,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>915.8742848123463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -2453,7 +2453,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>928.5458981544316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -2461,7 +2461,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>941.4482090137712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -2469,7 +2469,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>954.5844916266868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -2477,7 +2477,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>967.9581151827665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -2485,7 +2485,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>981.5725473794575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -2493,7 +2493,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>995.4313578601016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -2501,7 +2501,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>1009.538221526589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -2509,7 +2509,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>1023.896921717743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -2517,7 +2517,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1038.5113532424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -2525,7 +2525,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1053.385525259791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -2533,7 +2533,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1068.523563995009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -2541,7 +2541,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1083.929715280489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -2549,7 +2549,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1099.608346914475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -2557,7 +2557,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1115.563950821763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -2565,7 +2565,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1131.801145010901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -2573,7 +2573,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1148.324675312737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -2581,7 +2581,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1165.13941688965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -2589,7 +2589,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1182.25037550478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -2597,7 +2597,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1199.662688536991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -2605,7 +2605,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1217.38162573076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -2613,7 +2613,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1235.412589666172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -2621,7 +2621,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1253.761115936995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -2629,7 +2629,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1272.432873022394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -2637,7 +2637,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1291.433661837643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -2645,7 +2645,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1310.769414950497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -2653,7 +2653,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1330.446195446806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -2661,7 +2661,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1350.470195431066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -2669,7 +2669,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1370.847734145452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -2677,7 +2677,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1391.585255692044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -2685,7 +2685,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1412.68932634109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -2693,7 +2693,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1434.166631409149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -2701,7 +2701,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1456.023971689826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -2709,7 +2709,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1478.268259420072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -2717,7 +2717,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1500.906513765048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -2725,7 +2725,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1523.94585580254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -2733,7 +2733,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1547.393502991415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -2741,7 +2741,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1571.25676310455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -2749,7 +2749,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1595.543027609674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -2757,7 +2757,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1620.259764480044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -2765,7 +2765,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1645.414510417427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -2773,7 +2773,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1671.014862470294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -2781,7 +2781,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1697.068469031354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -2789,7 +2789,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1723.583020195332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -2797,7 +2797,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1750.566237464467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -2805,7 +2805,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1778.025862784213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -2813,7 +2813,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1805.969646895187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -2821,7 +2821,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1834.40533698781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -2829,7 +2829,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1863.340663648054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -2837,7 +2837,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1892.783327081497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -2845,7 +2845,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1922.740982605587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">

--- a/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>12089.7757232225</v>
+        <v>13540.54881000922</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>12157.05081430843</v>
+        <v>13615.89691202546</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>12223.02523408918</v>
+        <v>13689.7882621799</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>12287.73373191133</v>
+        <v>13762.2617797407</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>12351.21565166777</v>
+        <v>13833.36152986792</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>12413.51493363417</v>
+        <v>13903.13672567029</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>12474.68010401605</v>
+        <v>13971.64171649799</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>12534.76425180913</v>
+        <v>14038.93596202624</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>12593.82499267761</v>
+        <v>14105.08399179894</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>12651.92441944137</v>
+        <v>14170.15534977435</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>12105.70066544271</v>
+        <v>13558.38474529585</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>12159.4043721004</v>
+        <v>13618.53289675246</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>12212.39475946571</v>
+        <v>13677.88213060161</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>12264.74729213655</v>
+        <v>13736.51696719295</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>12316.54126018691</v>
+        <v>13794.52621140936</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>12367.85964806489</v>
+        <v>13852.0028058327</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>12418.78898815572</v>
+        <v>13909.04366673442</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>12469.4191985934</v>
+        <v>13965.74950242462</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>12519.84340491348</v>
+        <v>14022.22461350312</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>12570.15774511293</v>
+        <v>14078.57667452649</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>12620.46115772751</v>
+        <v>14134.91649665483</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>12670.85515248061</v>
+        <v>14191.35777077829</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>12721.44356314544</v>
+        <v>14248.01679072291</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>12772.33228219719</v>
+        <v>14305.01215606086</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>12823.62897693279</v>
+        <v>14362.46445416473</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>12875.44278673031</v>
+        <v>14420.49592113797</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>12927.88400116044</v>
+        <v>14479.23008129971</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>12981.06371875367</v>
+        <v>14538.79136500412</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>13035.09348626017</v>
+        <v>14599.3047046114</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>13090.08491833099</v>
+        <v>14660.89510853072</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>13146.14929766479</v>
+        <v>14723.68721338458</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>13203.39715573274</v>
+        <v>14787.80481442069</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>13261.93783437344</v>
+        <v>14853.37037449827</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>13321.87902862448</v>
+        <v>14920.50451205944</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>13383.32631139385</v>
+        <v>14989.32546876113</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>13446.38264066379</v>
+        <v>15059.94855754346</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>13511.14785019487</v>
+        <v>15132.48559221827</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>13577.71812482126</v>
+        <v>15207.04429979982</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>13646.1854617259</v>
+        <v>15283.72771713303</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>13716.6371192694</v>
+        <v>15362.63357358175</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>13789.15505520801</v>
+        <v>15443.85366183299</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>13863.81535642161</v>
+        <v>15527.47319919222</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>13940.68766251234</v>
+        <v>15613.57018201384</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>14019.83458593257</v>
+        <v>15702.2147362445</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>14101.31113157673</v>
+        <v>15793.46846736595</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>14185.1641190611</v>
+        <v>15887.38381334845</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>14271.43161122209</v>
+        <v>15984.00340456876</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>14360.14235257009</v>
+        <v>16083.35943487852</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>14451.31522181803</v>
+        <v>16185.47304843621</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>14544.95870275859</v>
+        <v>16290.35374708964</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1953.221225404408</v>
+        <v>1562.576980323525</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1984.231574535401</v>
+        <v>1587.38525962832</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>2015.7794561849</v>
+        <v>1612.623564947919</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>2047.872186170569</v>
+        <v>1638.297748936454</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>2080.516951688013</v>
+        <v>1664.413561350409</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>2113.720792303831</v>
+        <v>1690.976633843063</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>2147.490580201277</v>
+        <v>1717.99246416102</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>2181.832999683855</v>
+        <v>1745.466399747083</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>2216.75452594625</v>
+        <v>1773.403620756999</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>2252.261403129742</v>
+        <v>1801.809122503792</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>2288.359621676602</v>
+        <v>1830.68769734128</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>2325.05489500325</v>
+        <v>1860.043916002599</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>2362.352635520108</v>
+        <v>1889.882108416085</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>2400.257930025001</v>
+        <v>1920.20634402</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>2438.775514502697</v>
+        <v>1951.020411602156</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>2477.909748371586</v>
+        <v>1982.327798697268</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2517.664588215964</v>
+        <v>2014.13167057277</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2558.043561053834</v>
+        <v>2046.434848843066</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2599.049737194707</v>
+        <v>2079.239789755764</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2640.685702740131</v>
+        <v>2112.548562192103</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2682.953531796343</v>
+        <v>2146.362825437073</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2725.854758461723</v>
+        <v>2180.683806769377</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2769.390348670602</v>
+        <v>2215.51227893648</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2813.560671966328</v>
+        <v>2250.848537573061</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2858.365473294011</v>
+        <v>2286.692378635208</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2903.80384490365</v>
+        <v>2323.043075922918</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2949.87419845893</v>
+        <v>2359.899358767143</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2996.574237456018</v>
+        <v>2397.259389964813</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>3043.900930060042</v>
+        <v>2435.120744048032</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>3091.850482472806</v>
+        <v>2473.480385978243</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>3140.418312948511</v>
+        <v>2512.334650358807</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>3189.599026583601</v>
+        <v>2551.679221266879</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>3239.38639100589</v>
+        <v>2591.50911280471</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>3289.773313096231</v>
+        <v>2631.818650476983</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>3340.751816879131</v>
+        <v>2672.601453503303</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>3392.313022719929</v>
+        <v>2713.850418175942</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>3444.447127970283</v>
+        <v>2755.557702376225</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>3497.143389210858</v>
+        <v>2797.714711368685</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>3550.390106231271</v>
+        <v>2840.312084985015</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>3604.174607898279</v>
+        <v>2883.339686318621</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>3658.483240060958</v>
+        <v>2926.786592048765</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>3713.301355637705</v>
+        <v>2970.641084510163</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3768.613307036059</v>
+        <v>3014.890645628846</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3824.402441043935</v>
+        <v>3059.521952835146</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3880.6510963448</v>
+        <v>3104.520877075838</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3937.340603784142</v>
+        <v>3149.872483027312</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3994.451289534381</v>
+        <v>3195.561031627502</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>4051.962481275933</v>
+        <v>3241.569985020744</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>4109.852517529426</v>
+        <v>3287.882014023539</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>4168.098760246334</v>
+        <v>3334.479008197065</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>4226.6776107731</v>
+        <v>3381.342088618478</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>4285.56452928343</v>
+        <v>3428.451623426741</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>4344.734057772562</v>
+        <v>3475.787246218047</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>4404.159846689085</v>
+        <v>3523.327877351266</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>4463.81468527281</v>
+        <v>3571.051748218246</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>5137.183946017288</v>
+        <v>4109.747156813833</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>5205.353158556394</v>
+        <v>4164.282526845119</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>5273.68432244705</v>
+        <v>4218.947457957644</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>5342.143055014871</v>
+        <v>4273.7144440119</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>5410.694232568432</v>
+        <v>4328.55538605475</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>5479.302050825856</v>
+        <v>4383.441640660688</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>5547.930089636425</v>
+        <v>4438.344071709143</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>5616.541381922724</v>
+        <v>4493.233105538183</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>5685.0984867664</v>
+        <v>4548.078789413124</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>5753.563566539692</v>
+        <v>4602.850853231757</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>5821.898467947105</v>
+        <v>4657.518774357688</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>5890.064806848937</v>
+        <v>4712.051845479154</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>5958.024056688463</v>
+        <v>4766.419245350775</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>6025.737640348148</v>
+        <v>4820.590112278523</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>6093.167025229895</v>
+        <v>4874.53362018392</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>5210.736942727913</v>
+        <v>4168.589554182335</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>5267.194849410677</v>
+        <v>4213.755879528547</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>5323.315650654282</v>
+        <v>4258.652520523429</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>5379.067755683577</v>
+        <v>4303.254204546865</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>5434.420047258678</v>
+        <v>4347.536037806946</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>5489.341973977868</v>
+        <v>4391.473579182299</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>5543.803643687975</v>
+        <v>4435.042914950384</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>5597.775917722701</v>
+        <v>4478.220734178165</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>5651.230505681922</v>
+        <v>4520.984404545542</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>5704.140060454534</v>
+        <v>4563.312048363632</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>4203.838755945564</v>
+        <v>3363.071004756454</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>4241.624661000586</v>
+        <v>3393.299728800471</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>4278.957451482866</v>
+        <v>3423.165961186296</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>4315.820601560365</v>
+        <v>3452.656481248294</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>4352.198616112737</v>
+        <v>3481.758892890191</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>4388.077096488729</v>
+        <v>3510.461677190985</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>4423.442804863361</v>
+        <v>3538.754243890691</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>4458.283726972249</v>
+        <v>3566.626981577801</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>4492.589133000035</v>
+        <v>3594.07130640003</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>4526.349636409002</v>
+        <v>3621.079709127204</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>7400.161573106768</v>
+        <v>5920.129258485421</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>7453.149589756364</v>
+        <v>5962.519671805097</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>7505.221504614012</v>
+        <v>6004.177203691216</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>7556.371679846349</v>
+        <v>6045.097343877086</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>7606.597073188725</v>
+        <v>6085.277658550986</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>7655.897306411346</v>
+        <v>6124.717845129083</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>7704.274728221711</v>
+        <v>6163.419782577375</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>7751.734471310482</v>
+        <v>6201.387577048393</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>7798.284503291008</v>
+        <v>6238.627602632813</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>7843.935671249782</v>
+        <v>6275.148536999833</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>13540.54881000922</v>
+        <v>16384.06406011116</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>13615.89691202546</v>
+        <v>16475.2352635508</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>13689.7882621799</v>
+        <v>16564.64379723768</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>13762.2617797407</v>
+        <v>16652.33675348625</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>13833.36152986792</v>
+        <v>16738.36745114018</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>13903.13672567029</v>
+        <v>16822.79543806105</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>13971.64171649799</v>
+        <v>16905.68647696257</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>14038.93596202624</v>
+        <v>16987.11251405175</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>14105.08399179894</v>
+        <v>17067.15163007672</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>14170.15534977435</v>
+        <v>17145.88797322696</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>13558.38474529585</v>
+        <v>16405.64554180798</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>13618.53289675246</v>
+        <v>16478.42480507048</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>13677.88213060161</v>
+        <v>16550.23737802795</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>13736.51696719295</v>
+        <v>16621.18553030348</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>13794.52621140936</v>
+        <v>16691.37671580532</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>13852.0028058327</v>
+        <v>16760.92339505756</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>13909.04366673442</v>
+        <v>16829.94283674865</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>13965.74950242462</v>
+        <v>16898.55689793379</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>14022.22461350312</v>
+        <v>16966.89178233877</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>14078.57667452649</v>
+        <v>17035.07777617706</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>14134.91649665483</v>
+        <v>17103.24896095234</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>14191.35777077829</v>
+        <v>17171.54290264174</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>14248.01679072291</v>
+        <v>17240.10031677472</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>14305.01215606086</v>
+        <v>17309.06470883364</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>14362.46445416473</v>
+        <v>17378.58198953933</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>14420.49592113797</v>
+        <v>17448.80006457694</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>14479.23008129971</v>
+        <v>17519.86839837265</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>14538.79136500412</v>
+        <v>17591.93755165499</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>14599.3047046114</v>
+        <v>17665.1586925798</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>14660.89510853072</v>
+        <v>17739.68308132217</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>14723.68721338458</v>
+        <v>17815.66152819534</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>14787.80481442069</v>
+        <v>17893.24382544903</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>14853.37037449827</v>
+        <v>17972.57815314291</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>14920.50451205944</v>
+        <v>18053.81045959192</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>14989.32546876113</v>
+        <v>18137.08381720096</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>15059.94855754346</v>
+        <v>18222.53775462758</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>15132.48559221827</v>
+        <v>18310.30756658411</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>15207.04429979982</v>
+        <v>18400.52360275779</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>15283.72771713303</v>
+        <v>18493.31053773097</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>15362.63357358175</v>
+        <v>18588.78662403392</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>15443.85366183299</v>
+        <v>18687.06293081792</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>15527.47319919222</v>
+        <v>18788.24257102259</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>15613.57018201384</v>
+        <v>18892.41992023675</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>15702.2147362445</v>
+        <v>18999.67983085584</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>15793.46846736595</v>
+        <v>19110.0968455128</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>15887.38381334845</v>
+        <v>19223.73441415162</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>15984.00340456876</v>
+        <v>19340.6441195282</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>16083.35943487852</v>
+        <v>19460.86491620301</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>16185.47304843621</v>
+        <v>19584.42238860781</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>16290.35374708964</v>
+        <v>19711.32803397847</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1562.576980323525</v>
+        <v>1953.221225404408</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1587.38525962832</v>
+        <v>1984.231574535401</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1612.623564947919</v>
+        <v>2015.7794561849</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1638.297748936454</v>
+        <v>2047.872186170569</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1664.413561350409</v>
+        <v>2080.516951688013</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1690.976633843063</v>
+        <v>2113.720792303831</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1717.99246416102</v>
+        <v>2147.490580201277</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1745.466399747083</v>
+        <v>2181.832999683855</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1773.403620756999</v>
+        <v>2216.75452594625</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1801.809122503792</v>
+        <v>2252.261403129742</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1830.68769734128</v>
+        <v>2288.359621676602</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1860.043916002599</v>
+        <v>2325.05489500325</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1889.882108416085</v>
+        <v>2362.352635520108</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1920.20634402</v>
+        <v>2400.257930025001</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1951.020411602156</v>
+        <v>2438.775514502697</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1982.327798697268</v>
+        <v>2477.909748371586</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2014.13167057277</v>
+        <v>2517.664588215964</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2046.434848843066</v>
+        <v>2558.043561053834</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2079.239789755764</v>
+        <v>2599.049737194707</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2112.548562192103</v>
+        <v>2640.685702740131</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2146.362825437073</v>
+        <v>2682.953531796343</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2180.683806769377</v>
+        <v>2725.854758461723</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2215.51227893648</v>
+        <v>2769.390348670602</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2250.848537573061</v>
+        <v>2813.560671966328</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2286.692378635208</v>
+        <v>2858.365473294011</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2323.043075922918</v>
+        <v>2903.80384490365</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2359.899358767143</v>
+        <v>2949.87419845893</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2397.259389964813</v>
+        <v>2996.574237456018</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2435.120744048032</v>
+        <v>3043.900930060042</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2473.480385978243</v>
+        <v>3091.850482472806</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2512.334650358807</v>
+        <v>3140.418312948511</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2551.679221266879</v>
+        <v>3189.599026583601</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2591.50911280471</v>
+        <v>3239.38639100589</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2631.818650476983</v>
+        <v>3289.773313096231</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2672.601453503303</v>
+        <v>3340.751816879131</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2713.850418175942</v>
+        <v>3392.313022719929</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2755.557702376225</v>
+        <v>3444.447127970283</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2797.714711368685</v>
+        <v>3497.143389210858</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2840.312084985015</v>
+        <v>3550.390106231271</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2883.339686318621</v>
+        <v>3604.174607898279</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2926.786592048765</v>
+        <v>3658.483240060958</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2970.641084510163</v>
+        <v>3713.301355637705</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3014.890645628846</v>
+        <v>3768.613307036059</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3059.521952835146</v>
+        <v>3824.402441043935</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3104.520877075838</v>
+        <v>3880.6510963448</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3149.872483027312</v>
+        <v>3937.340603784142</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3195.561031627502</v>
+        <v>3994.451289534381</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>3241.569985020744</v>
+        <v>4051.962481275933</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>3287.882014023539</v>
+        <v>4109.852517529426</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>3334.479008197065</v>
+        <v>4168.098760246334</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>3381.342088618478</v>
+        <v>4226.6776107731</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>3428.451623426741</v>
+        <v>4285.56452928343</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>3475.787246218047</v>
+        <v>4344.734057772562</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3523.327877351266</v>
+        <v>4404.159846689085</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3571.051748218246</v>
+        <v>4463.81468527281</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>4109.747156813833</v>
+        <v>5137.183946017288</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>4164.282526845119</v>
+        <v>5205.353158556394</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>4218.947457957644</v>
+        <v>5273.68432244705</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>4273.7144440119</v>
+        <v>5342.143055014871</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>4328.55538605475</v>
+        <v>5410.694232568432</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>4383.441640660688</v>
+        <v>5479.302050825856</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>4438.344071709143</v>
+        <v>5547.930089636425</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>4493.233105538183</v>
+        <v>5616.541381922724</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>4548.078789413124</v>
+        <v>5685.0984867664</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>4602.850853231757</v>
+        <v>5753.563566539692</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>4657.518774357688</v>
+        <v>5821.898467947105</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>4712.051845479154</v>
+        <v>5890.064806848937</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>4766.419245350775</v>
+        <v>5958.024056688463</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>4820.590112278523</v>
+        <v>6025.737640348148</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>4874.53362018392</v>
+        <v>6093.167025229895</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>4168.589554182335</v>
+        <v>5210.736942727913</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>4213.755879528547</v>
+        <v>5267.194849410677</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>4258.652520523429</v>
+        <v>5323.315650654282</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>4303.254204546865</v>
+        <v>5379.067755683577</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>4347.536037806946</v>
+        <v>5434.420047258678</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>4391.473579182299</v>
+        <v>5489.341973977868</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>4435.042914950384</v>
+        <v>5543.803643687975</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>4478.220734178165</v>
+        <v>5597.775917722701</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>4520.984404545542</v>
+        <v>5651.230505681922</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>4563.312048363632</v>
+        <v>5704.140060454534</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3363.071004756454</v>
+        <v>4203.838755945564</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3393.299728800471</v>
+        <v>4241.624661000586</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3423.165961186296</v>
+        <v>4278.957451482866</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3452.656481248294</v>
+        <v>4315.820601560365</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3481.758892890191</v>
+        <v>4352.198616112737</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3510.461677190985</v>
+        <v>4388.077096488729</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3538.754243890691</v>
+        <v>4423.442804863361</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3566.626981577801</v>
+        <v>4458.283726972249</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3594.07130640003</v>
+        <v>4492.589133000035</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3621.079709127204</v>
+        <v>4526.349636409002</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>5920.129258485421</v>
+        <v>7400.161573106768</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>5962.519671805097</v>
+        <v>7453.149589756364</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>6004.177203691216</v>
+        <v>7505.221504614012</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>6045.097343877086</v>
+        <v>7556.371679846349</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>6085.277658550986</v>
+        <v>7606.597073188725</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>6124.717845129083</v>
+        <v>7655.897306411346</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>6163.419782577375</v>
+        <v>7704.274728221711</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>6201.387577048393</v>
+        <v>7751.734471310482</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>6238.627602632813</v>
+        <v>7798.284503291008</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>6275.148536999833</v>
+        <v>7843.935671249782</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>16384.06406011116</v>
+        <v>12089.7757232225</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>16475.2352635508</v>
+        <v>12157.05081430843</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>16564.64379723768</v>
+        <v>12223.02523408918</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>16652.33675348625</v>
+        <v>12287.73373191133</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>16738.36745114018</v>
+        <v>12351.21565166777</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>16822.79543806105</v>
+        <v>12413.51493363417</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>16905.68647696257</v>
+        <v>12474.68010401605</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>16987.11251405175</v>
+        <v>12534.76425180913</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>17067.15163007672</v>
+        <v>12593.82499267761</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>17145.88797322696</v>
+        <v>12651.92441944137</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>16405.64554180798</v>
+        <v>12105.70066544271</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>16478.42480507048</v>
+        <v>12159.4043721004</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>16550.23737802795</v>
+        <v>12212.39475946571</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>16621.18553030348</v>
+        <v>12264.74729213655</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>16691.37671580532</v>
+        <v>12316.54126018691</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>16760.92339505756</v>
+        <v>12367.85964806489</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>16829.94283674865</v>
+        <v>12418.78898815572</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>16898.55689793379</v>
+        <v>12469.4191985934</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>16966.89178233877</v>
+        <v>12519.84340491348</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>17035.07777617706</v>
+        <v>12570.15774511293</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>17103.24896095234</v>
+        <v>12620.46115772751</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>17171.54290264174</v>
+        <v>12670.85515248061</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>17240.10031677472</v>
+        <v>12721.44356314544</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>17309.06470883364</v>
+        <v>12772.33228219719</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>17378.58198953933</v>
+        <v>12823.62897693279</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>17448.80006457694</v>
+        <v>12875.44278673031</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>17519.86839837265</v>
+        <v>12927.88400116044</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>17591.93755165499</v>
+        <v>12981.06371875367</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>17665.1586925798</v>
+        <v>13035.09348626017</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>17739.68308132217</v>
+        <v>13090.08491833099</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>17815.66152819534</v>
+        <v>13146.14929766479</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>17893.24382544903</v>
+        <v>13203.39715573274</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>17972.57815314291</v>
+        <v>13261.93783437344</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>18053.81045959192</v>
+        <v>13321.87902862448</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>18137.08381720096</v>
+        <v>13383.32631139385</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>18222.53775462758</v>
+        <v>13446.38264066379</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>18310.30756658411</v>
+        <v>13511.14785019487</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>18400.52360275779</v>
+        <v>13577.71812482126</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>18493.31053773097</v>
+        <v>13646.1854617259</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>18588.78662403392</v>
+        <v>13716.6371192694</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>18687.06293081792</v>
+        <v>13789.15505520801</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>18788.24257102259</v>
+        <v>13863.81535642161</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>18892.41992023675</v>
+        <v>13940.68766251234</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>18999.67983085584</v>
+        <v>14019.83458593257</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>19110.0968455128</v>
+        <v>14101.31113157673</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>19223.73441415162</v>
+        <v>14185.1641190611</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>19340.6441195282</v>
+        <v>14271.43161122209</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>19460.86491620301</v>
+        <v>14360.14235257009</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>19584.42238860781</v>
+        <v>14451.31522181803</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>19711.32803397847</v>
+        <v>14544.95870275859</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1953.221225404408</v>
+        <v>1562.576980323525</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1984.231574535401</v>
+        <v>1587.38525962832</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>2015.7794561849</v>
+        <v>1612.623564947919</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>2047.872186170569</v>
+        <v>1638.297748936454</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>2080.516951688013</v>
+        <v>1664.413561350409</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>2113.720792303831</v>
+        <v>1690.976633843063</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>2147.490580201277</v>
+        <v>1717.99246416102</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>2181.832999683855</v>
+        <v>1745.466399747083</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>2216.75452594625</v>
+        <v>1773.403620756999</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>2252.261403129742</v>
+        <v>1801.809122503792</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>2288.359621676602</v>
+        <v>1830.68769734128</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>2325.05489500325</v>
+        <v>1860.043916002599</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>2362.352635520108</v>
+        <v>1889.882108416085</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>2400.257930025001</v>
+        <v>1920.20634402</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>2438.775514502697</v>
+        <v>1951.020411602156</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>2477.909748371586</v>
+        <v>1982.327798697268</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2517.664588215964</v>
+        <v>2014.13167057277</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2558.043561053834</v>
+        <v>2046.434848843066</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2599.049737194707</v>
+        <v>2079.239789755764</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2640.685702740131</v>
+        <v>2112.548562192103</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2682.953531796343</v>
+        <v>2146.362825437073</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2725.854758461723</v>
+        <v>2180.683806769377</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2769.390348670602</v>
+        <v>2215.51227893648</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2813.560671966328</v>
+        <v>2250.848537573061</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2858.365473294011</v>
+        <v>2286.692378635208</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2903.80384490365</v>
+        <v>2323.043075922918</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2949.87419845893</v>
+        <v>2359.899358767143</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2996.574237456018</v>
+        <v>2397.259389964813</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>3043.900930060042</v>
+        <v>2435.120744048032</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>3091.850482472806</v>
+        <v>2473.480385978243</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>3140.418312948511</v>
+        <v>2512.334650358807</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>3189.599026583601</v>
+        <v>2551.679221266879</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>3239.38639100589</v>
+        <v>2591.50911280471</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>3289.773313096231</v>
+        <v>2631.818650476983</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>3340.751816879131</v>
+        <v>2672.601453503303</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>3392.313022719929</v>
+        <v>2713.850418175942</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>3444.447127970283</v>
+        <v>2755.557702376225</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>3497.143389210858</v>
+        <v>2797.714711368685</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>3550.390106231271</v>
+        <v>2840.312084985015</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>3604.174607898279</v>
+        <v>2883.339686318621</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>3658.483240060958</v>
+        <v>2926.786592048765</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>3713.301355637705</v>
+        <v>2970.641084510163</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3768.613307036059</v>
+        <v>3014.890645628846</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3824.402441043935</v>
+        <v>3059.521952835146</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3880.6510963448</v>
+        <v>3104.520877075838</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3937.340603784142</v>
+        <v>3149.872483027312</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3994.451289534381</v>
+        <v>3195.561031627502</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>4051.962481275933</v>
+        <v>3241.569985020744</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>4109.852517529426</v>
+        <v>3287.882014023539</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>4168.098760246334</v>
+        <v>3334.479008197065</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>4226.6776107731</v>
+        <v>3381.342088618478</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>4285.56452928343</v>
+        <v>3428.451623426741</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>4344.734057772562</v>
+        <v>3475.787246218047</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>4404.159846689085</v>
+        <v>3523.327877351266</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>4463.81468527281</v>
+        <v>3571.051748218246</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>5137.183946017288</v>
+        <v>4109.747156813833</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>5205.353158556394</v>
+        <v>4164.282526845119</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>5273.68432244705</v>
+        <v>4218.947457957644</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>5342.143055014871</v>
+        <v>4273.7144440119</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>5410.694232568432</v>
+        <v>4328.55538605475</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>5479.302050825856</v>
+        <v>4383.441640660688</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>5547.930089636425</v>
+        <v>4438.344071709143</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>5616.541381922724</v>
+        <v>4493.233105538183</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>5685.0984867664</v>
+        <v>4548.078789413124</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>5753.563566539692</v>
+        <v>4602.850853231757</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>5821.898467947105</v>
+        <v>4657.518774357688</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>5890.064806848937</v>
+        <v>4712.051845479154</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>5958.024056688463</v>
+        <v>4766.419245350775</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>6025.737640348148</v>
+        <v>4820.590112278523</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>6093.167025229895</v>
+        <v>4874.53362018392</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>5210.736942727913</v>
+        <v>4168.589554182335</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>5267.194849410677</v>
+        <v>4213.755879528547</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>5323.315650654282</v>
+        <v>4258.652520523429</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>5379.067755683577</v>
+        <v>4303.254204546865</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>5434.420047258678</v>
+        <v>4347.536037806946</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>5489.341973977868</v>
+        <v>4391.473579182299</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>5543.803643687975</v>
+        <v>4435.042914950384</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>5597.775917722701</v>
+        <v>4478.220734178165</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>5651.230505681922</v>
+        <v>4520.984404545542</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>5704.140060454534</v>
+        <v>4563.312048363632</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>4203.838755945564</v>
+        <v>3363.071004756454</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>4241.624661000586</v>
+        <v>3393.299728800471</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>4278.957451482866</v>
+        <v>3423.165961186296</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>4315.820601560365</v>
+        <v>3452.656481248294</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>4352.198616112737</v>
+        <v>3481.758892890191</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>4388.077096488729</v>
+        <v>3510.461677190985</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>4423.442804863361</v>
+        <v>3538.754243890691</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>4458.283726972249</v>
+        <v>3566.626981577801</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>4492.589133000035</v>
+        <v>3594.07130640003</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>4526.349636409002</v>
+        <v>3621.079709127204</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>7400.161573106768</v>
+        <v>5920.129258485421</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>7453.149589756364</v>
+        <v>5962.519671805097</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>7505.221504614012</v>
+        <v>6004.177203691216</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>7556.371679846349</v>
+        <v>6045.097343877086</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>7606.597073188725</v>
+        <v>6085.277658550986</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>7655.897306411346</v>
+        <v>6124.717845129083</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>7704.274728221711</v>
+        <v>6163.419782577375</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>7751.734471310482</v>
+        <v>6201.387577048393</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>7798.284503291008</v>
+        <v>6238.627602632813</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>7843.935671249782</v>
+        <v>6275.148536999833</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>12089.7757232225</v>
+        <v>16384.06406011116</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>12157.05081430843</v>
+        <v>16475.2352635508</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>12223.02523408918</v>
+        <v>16564.64379723768</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>12287.73373191133</v>
+        <v>16652.33675348625</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>12351.21565166777</v>
+        <v>16738.36745114018</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>12413.51493363417</v>
+        <v>16822.79543806105</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>12474.68010401605</v>
+        <v>16905.68647696257</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>12534.76425180913</v>
+        <v>16987.11251405175</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>12593.82499267761</v>
+        <v>17067.15163007672</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>12651.92441944137</v>
+        <v>17145.88797322696</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>12105.70066544271</v>
+        <v>16405.64554180798</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>12159.4043721004</v>
+        <v>16478.42480507048</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>12212.39475946571</v>
+        <v>16550.23737802795</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>12264.74729213655</v>
+        <v>16621.18553030348</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>12316.54126018691</v>
+        <v>16691.37671580532</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>12367.85964806489</v>
+        <v>16760.92339505756</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>12418.78898815572</v>
+        <v>16829.94283674865</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>12469.4191985934</v>
+        <v>16898.55689793379</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>12519.84340491348</v>
+        <v>16966.89178233877</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>12570.15774511293</v>
+        <v>17035.07777617706</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>12620.46115772751</v>
+        <v>17103.24896095234</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>12670.85515248061</v>
+        <v>17171.54290264174</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>12721.44356314544</v>
+        <v>17240.10031677472</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>12772.33228219719</v>
+        <v>17309.06470883364</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>12823.62897693279</v>
+        <v>17378.58198953933</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>12875.44278673031</v>
+        <v>17448.80006457694</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>12927.88400116044</v>
+        <v>17519.86839837265</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>12981.06371875367</v>
+        <v>17591.93755165499</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>13035.09348626017</v>
+        <v>17665.1586925798</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>13090.08491833099</v>
+        <v>17739.68308132217</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>13146.14929766479</v>
+        <v>17815.66152819534</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>13203.39715573274</v>
+        <v>17893.24382544903</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>13261.93783437344</v>
+        <v>17972.57815314291</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>13321.87902862448</v>
+        <v>18053.81045959192</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>13383.32631139385</v>
+        <v>18137.08381720096</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>13446.38264066379</v>
+        <v>18222.53775462758</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>13511.14785019487</v>
+        <v>18310.30756658411</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>13577.71812482126</v>
+        <v>18400.52360275779</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>13646.1854617259</v>
+        <v>18493.31053773097</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>13716.6371192694</v>
+        <v>18588.78662403392</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>13789.15505520801</v>
+        <v>18687.06293081792</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>13863.81535642161</v>
+        <v>18788.24257102259</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>13940.68766251234</v>
+        <v>18892.41992023675</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>14019.83458593257</v>
+        <v>18999.67983085584</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>14101.31113157673</v>
+        <v>19110.0968455128</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>14185.1641190611</v>
+        <v>19223.73441415162</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>14271.43161122209</v>
+        <v>19340.6441195282</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>14360.14235257009</v>
+        <v>19460.86491620301</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>14451.31522181803</v>
+        <v>19584.42238860781</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>14544.95870275859</v>
+        <v>19711.32803397847</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
+++ b/Data/model_outputs_baseline/number_of_dwellings/i_AB.xlsx
@@ -2853,7 +2853,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1562.576980323525</v>
+        <v>1562.576980330285</v>
       </c>
     </row>
     <row r="304">
@@ -2861,7 +2861,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1587.38525962832</v>
+        <v>1587.385259634777</v>
       </c>
     </row>
     <row r="305">
@@ -2869,7 +2869,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1612.623564947919</v>
+        <v>1612.623564954084</v>
       </c>
     </row>
     <row r="306">
@@ -2877,7 +2877,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1638.297748936454</v>
+        <v>1638.297748942305</v>
       </c>
     </row>
     <row r="307">
@@ -2885,7 +2885,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1664.413561350409</v>
+        <v>1664.413561355935</v>
       </c>
     </row>
     <row r="308">
@@ -2893,7 +2893,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1690.976633843063</v>
+        <v>1690.976633848289</v>
       </c>
     </row>
     <row r="309">
@@ -2901,7 +2901,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1717.99246416102</v>
+        <v>1717.9924641659</v>
       </c>
     </row>
     <row r="310">
@@ -2909,7 +2909,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1745.466399747083</v>
+        <v>1745.466399751594</v>
       </c>
     </row>
     <row r="311">
@@ -2917,7 +2917,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1773.403620756999</v>
+        <v>1773.403620761165</v>
       </c>
     </row>
     <row r="312">
@@ -2925,7 +2925,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1801.809122503792</v>
+        <v>1801.809122507662</v>
       </c>
     </row>
     <row r="313">
@@ -2933,7 +2933,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1830.68769734128</v>
+        <v>1830.687697344737</v>
       </c>
     </row>
     <row r="314">
@@ -2941,7 +2941,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1860.043916002599</v>
+        <v>1860.043916005691</v>
       </c>
     </row>
     <row r="315">
@@ -2949,7 +2949,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1889.882108416085</v>
+        <v>1889.88210841879</v>
       </c>
     </row>
     <row r="316">
@@ -2957,7 +2957,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1920.20634402</v>
+        <v>1920.206344022295</v>
       </c>
     </row>
     <row r="317">
@@ -2965,7 +2965,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1951.020411602156</v>
+        <v>1951.020411604089</v>
       </c>
     </row>
     <row r="318">
@@ -2973,7 +2973,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1982.327798697268</v>
+        <v>1982.327798698769</v>
       </c>
     </row>
     <row r="319">
@@ -2981,7 +2981,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>2014.13167057277</v>
+        <v>2014.131670573818</v>
       </c>
     </row>
     <row r="320">
@@ -2989,7 +2989,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>2046.434848843066</v>
+        <v>2046.434848843707</v>
       </c>
     </row>
     <row r="321">
@@ -2997,7 +2997,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>2079.239789755764</v>
+        <v>2079.239789755976</v>
       </c>
     </row>
     <row r="322">
@@ -3005,7 +3005,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>2112.548562192103</v>
+        <v>2112.548562191841</v>
       </c>
     </row>
     <row r="323">
@@ -3013,7 +3013,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>2146.362825437073</v>
+        <v>2146.362825436313</v>
       </c>
     </row>
     <row r="324">
@@ -3021,7 +3021,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>2180.683806769377</v>
+        <v>2180.68380676819</v>
       </c>
     </row>
     <row r="325">
@@ -3029,7 +3029,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2215.51227893648</v>
+        <v>2215.512278934796</v>
       </c>
     </row>
     <row r="326">
@@ -3037,7 +3037,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2250.848537573061</v>
+        <v>2250.848537570835</v>
       </c>
     </row>
     <row r="327">
@@ -3045,7 +3045,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2286.692378635208</v>
+        <v>2286.692378632509</v>
       </c>
     </row>
     <row r="328">
@@ -3053,7 +3053,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2323.043075922918</v>
+        <v>2323.043075919678</v>
       </c>
     </row>
     <row r="329">
@@ -3061,7 +3061,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2359.899358767143</v>
+        <v>2359.89935876336</v>
       </c>
     </row>
     <row r="330">
@@ -3069,7 +3069,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2397.259389964813</v>
+        <v>2397.25938996042</v>
       </c>
     </row>
     <row r="331">
@@ -3077,7 +3077,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2435.120744048032</v>
+        <v>2435.120744043098</v>
       </c>
     </row>
     <row r="332">
@@ -3085,7 +3085,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2473.480385978243</v>
+        <v>2473.48038597279</v>
       </c>
     </row>
     <row r="333">
@@ -3093,7 +3093,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2512.334650358807</v>
+        <v>2512.334650352697</v>
       </c>
     </row>
     <row r="334">
@@ -3101,7 +3101,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2551.679221266879</v>
+        <v>2551.679221260135</v>
       </c>
     </row>
     <row r="335">
@@ -3109,7 +3109,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2591.50911280471</v>
+        <v>2591.509112797377</v>
       </c>
     </row>
     <row r="336">
@@ -3117,7 +3117,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2631.818650476983</v>
+        <v>2631.818650468992</v>
       </c>
     </row>
     <row r="337">
@@ -3125,7 +3125,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2672.601453503303</v>
+        <v>2672.601453494653</v>
       </c>
     </row>
     <row r="338">
@@ -3133,7 +3133,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2713.850418175942</v>
+        <v>2713.85041816661</v>
       </c>
     </row>
     <row r="339">
@@ -3141,7 +3141,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2755.557702376225</v>
+        <v>2755.557702366188</v>
       </c>
     </row>
     <row r="340">
@@ -3149,7 +3149,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2797.714711368685</v>
+        <v>2797.714711358011</v>
       </c>
     </row>
     <row r="341">
@@ -3157,7 +3157,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2840.312084985015</v>
+        <v>2840.31208497352</v>
       </c>
     </row>
     <row r="342">
@@ -3165,7 +3165,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2883.339686318621</v>
+        <v>2883.339686306465</v>
       </c>
     </row>
     <row r="343">
@@ -3173,7 +3173,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2926.786592048765</v>
+        <v>2926.786592035761</v>
       </c>
     </row>
     <row r="344">
@@ -3181,7 +3181,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2970.641084510163</v>
+        <v>2970.641084496474</v>
       </c>
     </row>
     <row r="345">
@@ -3189,7 +3189,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>3014.890645628846</v>
+        <v>3014.89064561431</v>
       </c>
     </row>
     <row r="346">
@@ -3197,7 +3197,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>3059.521952835146</v>
+        <v>3059.521952819831</v>
       </c>
     </row>
     <row r="347">
@@ -3205,7 +3205,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>3104.520877075838</v>
+        <v>3104.520877059698</v>
       </c>
     </row>
     <row r="348">
@@ -3213,7 +3213,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>3149.872483027312</v>
+        <v>3149.872483010391</v>
       </c>
     </row>
     <row r="349">
@@ -3221,7 +3221,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>3195.561031627502</v>
+        <v>3195.561031609616</v>
       </c>
     </row>
     <row r="350">
@@ -3229,7 +3229,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>3241.569985020744</v>
+        <v>3241.569985002007</v>
       </c>
     </row>
     <row r="351">
@@ -3237,7 +3237,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>3287.882014023539</v>
+        <v>3287.882014003998</v>
       </c>
     </row>
     <row r="352">
@@ -3245,7 +3245,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>3334.479008197065</v>
+        <v>3334.479008176557</v>
       </c>
     </row>
     <row r="353">
@@ -3253,7 +3253,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>3381.342088618478</v>
+        <v>3381.342088597048</v>
       </c>
     </row>
     <row r="354">
@@ -3261,7 +3261,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>3428.451623426741</v>
+        <v>3428.451623404413</v>
       </c>
     </row>
     <row r="355">
@@ -3269,7 +3269,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>3475.787246218047</v>
+        <v>3475.78724619475</v>
       </c>
     </row>
     <row r="356">
@@ -3277,7 +3277,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3523.327877351266</v>
+        <v>3523.327877327046</v>
       </c>
     </row>
     <row r="357">
@@ -3285,7 +3285,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3571.051748218246</v>
+        <v>3571.051748192987</v>
       </c>
     </row>
     <row r="358">
@@ -3293,7 +3293,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>4109.747156813833</v>
+        <v>4109.747156784048</v>
       </c>
     </row>
     <row r="359">
@@ -3301,7 +3301,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>4164.282526845119</v>
+        <v>4164.282526814231</v>
       </c>
     </row>
     <row r="360">
@@ -3309,7 +3309,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>4218.947457957644</v>
+        <v>4218.947457925655</v>
       </c>
     </row>
     <row r="361">
@@ -3317,7 +3317,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>4273.7144440119</v>
+        <v>4273.714443978809</v>
       </c>
     </row>
     <row r="362">
@@ -3325,7 +3325,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>4328.55538605475</v>
+        <v>4328.555386020398</v>
       </c>
     </row>
     <row r="363">
@@ -3333,7 +3333,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>4383.441640660688</v>
+        <v>4383.441640625182</v>
       </c>
     </row>
     <row r="364">
@@ -3341,7 +3341,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>4438.344071709143</v>
+        <v>4438.344071672534</v>
       </c>
     </row>
     <row r="365">
@@ -3349,7 +3349,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>4493.233105538183</v>
+        <v>4493.23310550026</v>
       </c>
     </row>
     <row r="366">
@@ -3357,7 +3357,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>4548.078789413124</v>
+        <v>4548.078789374099</v>
       </c>
     </row>
     <row r="367">
@@ -3365,7 +3365,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>4602.850853231757</v>
+        <v>4602.850853191629</v>
       </c>
     </row>
     <row r="368">
@@ -3373,7 +3373,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>4657.518774357688</v>
+        <v>4657.518774316351</v>
       </c>
     </row>
     <row r="369">
@@ -3381,7 +3381,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>4712.051845479154</v>
+        <v>4712.051845436713</v>
       </c>
     </row>
     <row r="370">
@@ -3389,7 +3389,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>4766.419245350775</v>
+        <v>4766.41924530702</v>
       </c>
     </row>
     <row r="371">
@@ -3397,7 +3397,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>4820.590112278523</v>
+        <v>4820.590112233664</v>
       </c>
     </row>
     <row r="372">
@@ -3405,7 +3405,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>4874.53362018392</v>
+        <v>4874.533620138063</v>
       </c>
     </row>
     <row r="373">
@@ -3413,7 +3413,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>4168.589554182335</v>
+        <v>4168.589554142434</v>
       </c>
     </row>
     <row r="374">
@@ -3421,7 +3421,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>4213.755879528547</v>
+        <v>4213.755879487846</v>
       </c>
     </row>
     <row r="375">
@@ -3429,7 +3429,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>4258.652520523429</v>
+        <v>4258.65252048184</v>
       </c>
     </row>
     <row r="376">
@@ -3437,7 +3437,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>4303.254204546865</v>
+        <v>4303.254204504254</v>
       </c>
     </row>
     <row r="377">
@@ -3445,7 +3445,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>4347.536037806946</v>
+        <v>4347.536037763579</v>
       </c>
     </row>
     <row r="378">
@@ -3453,7 +3453,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>4391.473579182299</v>
+        <v>4391.473579137953</v>
       </c>
     </row>
     <row r="379">
@@ -3461,7 +3461,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>4435.042914950384</v>
+        <v>4435.042914905416</v>
       </c>
     </row>
     <row r="380">
@@ -3469,7 +3469,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>4478.220734178165</v>
+        <v>4478.220734132441</v>
       </c>
     </row>
     <row r="381">
@@ -3477,7 +3477,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>4520.984404545542</v>
+        <v>4520.984404498973</v>
       </c>
     </row>
     <row r="382">
@@ -3485,7 +3485,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>4563.312048363632</v>
+        <v>4563.312048316486</v>
       </c>
     </row>
     <row r="383">
@@ -3493,7 +3493,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3363.071004756454</v>
+        <v>3363.071004721536</v>
       </c>
     </row>
     <row r="384">
@@ -3501,7 +3501,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3393.299728800471</v>
+        <v>3393.299728765196</v>
       </c>
     </row>
     <row r="385">
@@ -3509,7 +3509,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3423.165961186296</v>
+        <v>3423.165961150566</v>
       </c>
     </row>
     <row r="386">
@@ -3517,7 +3517,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3452.656481248294</v>
+        <v>3452.656481212304</v>
       </c>
     </row>
     <row r="387">
@@ -3525,7 +3525,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3481.758892890191</v>
+        <v>3481.758892853942</v>
       </c>
     </row>
     <row r="388">
@@ -3533,7 +3533,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3510.461677190985</v>
+        <v>3510.461677154443</v>
       </c>
     </row>
     <row r="389">
@@ -3541,7 +3541,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3538.754243890691</v>
+        <v>3538.754243854083</v>
       </c>
     </row>
     <row r="390">
@@ -3549,7 +3549,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3566.626981577801</v>
+        <v>3566.626981541063</v>
       </c>
     </row>
     <row r="391">
@@ -3557,7 +3557,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3594.07130640003</v>
+        <v>3594.071306363388</v>
       </c>
     </row>
     <row r="392">
@@ -3565,7 +3565,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3621.079709127204</v>
+        <v>3621.07970909053</v>
       </c>
     </row>
     <row r="393">
@@ -3573,7 +3573,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>5920.129258485421</v>
+        <v>5920.129258426265</v>
       </c>
     </row>
     <row r="394">
@@ -3581,7 +3581,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>5962.519671805097</v>
+        <v>5962.519671746203</v>
       </c>
     </row>
     <row r="395">
@@ -3589,7 +3589,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>6004.177203691216</v>
+        <v>6004.177203632848</v>
       </c>
     </row>
     <row r="396">
@@ -3597,7 +3597,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>6045.097343877086</v>
+        <v>6045.097343819453</v>
       </c>
     </row>
     <row r="397">
@@ -3605,7 +3605,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>6085.277658550986</v>
+        <v>6085.277658494194</v>
       </c>
     </row>
     <row r="398">
@@ -3613,7 +3613,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>6124.717845129083</v>
+        <v>6124.717845073394</v>
       </c>
     </row>
     <row r="399">
@@ -3621,7 +3621,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>6163.419782577375</v>
+        <v>6163.419782522895</v>
       </c>
     </row>
     <row r="400">
@@ -3629,7 +3629,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>6201.387577048393</v>
+        <v>6201.387576995332</v>
       </c>
     </row>
     <row r="401">
@@ -3637,7 +3637,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>6238.627602632813</v>
+        <v>6238.627602581383</v>
       </c>
     </row>
     <row r="402">
@@ -3645,7 +3645,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>6275.148536999833</v>
+        <v>6275.148536950347</v>
       </c>
     </row>
     <row r="403">
@@ -3653,7 +3653,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>16384.06406011116</v>
+        <v>16384.06405998788</v>
       </c>
     </row>
     <row r="404">
@@ -3661,7 +3661,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>16475.2352635508</v>
+        <v>16475.23526343394</v>
       </c>
     </row>
     <row r="405">
@@ -3669,7 +3669,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>16564.64379723768</v>
+        <v>16564.64379712723</v>
       </c>
     </row>
     <row r="406">
@@ -3677,7 +3677,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>16652.33675348625</v>
+        <v>16652.33675338331</v>
       </c>
     </row>
     <row r="407">
@@ -3685,7 +3685,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>16738.36745114018</v>
+        <v>16738.36745104584</v>
       </c>
     </row>
     <row r="408">
@@ -3693,7 +3693,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>16822.79543806105</v>
+        <v>16822.79543797518</v>
       </c>
     </row>
     <row r="409">
@@ -3701,7 +3701,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>16905.68647696257</v>
+        <v>16905.68647688639</v>
       </c>
     </row>
     <row r="410">
@@ -3709,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>16987.11251405175</v>
+        <v>16987.11251398608</v>
       </c>
     </row>
     <row r="411">
@@ -3717,7 +3717,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>17067.15163007672</v>
+        <v>17067.15163002211</v>
       </c>
     </row>
     <row r="412">
@@ -3725,7 +3725,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>17145.88797322696</v>
+        <v>17145.88797318492</v>
       </c>
     </row>
     <row r="413">
@@ -3733,7 +3733,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>16405.64554180798</v>
+        <v>16405.64554178067</v>
       </c>
     </row>
     <row r="414">
@@ -3741,7 +3741,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>16478.42480507048</v>
+        <v>16478.42480505618</v>
       </c>
     </row>
     <row r="415">
@@ -3749,7 +3749,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>16550.23737802795</v>
+        <v>16550.23737802744</v>
       </c>
     </row>
     <row r="416">
@@ -3757,7 +3757,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>16621.18553030348</v>
+        <v>16621.18553031805</v>
       </c>
     </row>
     <row r="417">
@@ -3765,7 +3765,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>16691.37671580532</v>
+        <v>16691.37671583655</v>
       </c>
     </row>
     <row r="418">
@@ -3773,7 +3773,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>16760.92339505756</v>
+        <v>16760.92339510543</v>
       </c>
     </row>
     <row r="419">
@@ -3781,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>16829.94283674865</v>
+        <v>16829.94283681447</v>
       </c>
     </row>
     <row r="420">
@@ -3789,7 +3789,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>16898.55689793379</v>
+        <v>16898.55689801885</v>
       </c>
     </row>
     <row r="421">
@@ -3797,7 +3797,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>16966.89178233877</v>
+        <v>16966.89178244335</v>
       </c>
     </row>
     <row r="422">
@@ -3805,7 +3805,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>17035.07777617706</v>
+        <v>17035.07777630218</v>
       </c>
     </row>
     <row r="423">
@@ -3813,7 +3813,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>17103.24896095234</v>
+        <v>17103.24896109958</v>
       </c>
     </row>
     <row r="424">
@@ -3821,7 +3821,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>17171.54290264174</v>
+        <v>17171.54290281186</v>
       </c>
     </row>
     <row r="425">
@@ -3829,7 +3829,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>17240.10031677472</v>
+        <v>17240.10031696852</v>
       </c>
     </row>
     <row r="426">
@@ -3837,7 +3837,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>17309.06470883364</v>
+        <v>17309.0647090519</v>
       </c>
     </row>
     <row r="427">
@@ -3845,7 +3845,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>17378.58198953933</v>
+        <v>17378.58198978359</v>
       </c>
     </row>
     <row r="428">
@@ -3853,7 +3853,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>17448.80006457694</v>
+        <v>17448.80006484774</v>
       </c>
     </row>
     <row r="429">
@@ -3861,7 +3861,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>17519.86839837265</v>
+        <v>17519.8683986705</v>
       </c>
     </row>
     <row r="430">
@@ -3869,7 +3869,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>17591.93755165499</v>
+        <v>17591.93755198198</v>
       </c>
     </row>
     <row r="431">
@@ -3877,7 +3877,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>17665.1586925798</v>
+        <v>17665.1586929354</v>
       </c>
     </row>
     <row r="432">
@@ -3885,7 +3885,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>17739.68308132217</v>
+        <v>17739.68308170717</v>
       </c>
     </row>
     <row r="433">
@@ -3893,7 +3893,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>17815.66152819534</v>
+        <v>17815.66152861155</v>
       </c>
     </row>
     <row r="434">
@@ -3901,7 +3901,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>17893.24382544903</v>
+        <v>17893.24382589698</v>
       </c>
     </row>
     <row r="435">
@@ -3909,7 +3909,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>17972.57815314291</v>
+        <v>17972.57815362259</v>
       </c>
     </row>
     <row r="436">
@@ -3917,7 +3917,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>18053.81045959192</v>
+        <v>18053.81046010334</v>
       </c>
     </row>
     <row r="437">
@@ -3925,7 +3925,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>18137.08381720096</v>
+        <v>18137.0838177462</v>
       </c>
     </row>
     <row r="438">
@@ -3933,7 +3933,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>18222.53775462758</v>
+        <v>18222.53775520534</v>
       </c>
     </row>
     <row r="439">
@@ -3941,7 +3941,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>18310.30756658411</v>
+        <v>18310.30756719542</v>
       </c>
     </row>
     <row r="440">
@@ -3949,7 +3949,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>18400.52360275779</v>
+        <v>18400.52360340317</v>
       </c>
     </row>
     <row r="441">
@@ -3957,7 +3957,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>18493.31053773097</v>
+        <v>18493.31053841017</v>
       </c>
     </row>
     <row r="442">
@@ -3965,7 +3965,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>18588.78662403392</v>
+        <v>18588.78662474668</v>
       </c>
     </row>
     <row r="443">
@@ -3973,7 +3973,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>18687.06293081792</v>
+        <v>18687.06293156397</v>
       </c>
     </row>
     <row r="444">
@@ -3981,7 +3981,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>18788.24257102259</v>
+        <v>18788.2425718022</v>
       </c>
     </row>
     <row r="445">
@@ -3989,7 +3989,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>18892.41992023675</v>
+        <v>18892.41992104861</v>
       </c>
     </row>
     <row r="446">
@@ -3997,7 +3997,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>18999.67983085584</v>
+        <v>18999.67983170049</v>
       </c>
     </row>
     <row r="447">
@@ -4005,7 +4005,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>19110.0968455128</v>
+        <v>19110.09684638789</v>
       </c>
     </row>
     <row r="448">
@@ -4013,7 +4013,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>19223.73441415162</v>
+        <v>19223.73441505766</v>
       </c>
     </row>
     <row r="449">
@@ -4021,7 +4021,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>19340.6441195282</v>
+        <v>19340.64412046389</v>
       </c>
     </row>
     <row r="450">
@@ -4029,7 +4029,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>19460.86491620301</v>
+        <v>19460.86491716628</v>
       </c>
     </row>
     <row r="451">
@@ -4037,7 +4037,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>19584.42238860781</v>
+        <v>19584.42238959761</v>
       </c>
     </row>
     <row r="452">
@@ -4045,7 +4045,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>19711.32803397847</v>
+        <v>19711.32803499428</v>
       </c>
     </row>
   </sheetData>
